--- a/02_Proyecto/11_Metricas/Aseguramiento_de_la_Calidad_Lib2_5_12.xlsx
+++ b/02_Proyecto/11_Metricas/Aseguramiento_de_la_Calidad_Lib2_5_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="170">
   <si>
     <t>Seguimiento a Graduados del IASA - ESPE</t>
   </si>
@@ -290,10 +290,10 @@
     <t>Documentación</t>
   </si>
   <si>
-    <t>Interfaz</t>
+    <t>Interfaz 1</t>
   </si>
   <si>
-    <t>Sistema</t>
+    <t>Sistema 1</t>
   </si>
   <si>
     <t>TOTAL EN MINUTOS:</t>
@@ -302,22 +302,22 @@
     <t>Sintaxis</t>
   </si>
   <si>
-    <t>Comprobación</t>
+    <t>Comprobación 5</t>
   </si>
   <si>
-    <t>Entorno</t>
+    <t>Entorno 1</t>
   </si>
   <si>
     <t>Construcción Paquetes</t>
   </si>
   <si>
-    <t>Datos</t>
+    <t>Datos 1</t>
   </si>
   <si>
     <t>Asignación</t>
   </si>
   <si>
-    <t>Función</t>
+    <t>Función 2</t>
   </si>
   <si>
     <t>Integrantes</t>
@@ -365,43 +365,199 @@
     <t>T. Corrección</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseño </t>
-  </si>
-  <si>
     <t>Error para el control de accesos de los usuarios</t>
   </si>
   <si>
     <t>No se valida el submit con campos vacios</t>
   </si>
   <si>
+    <t>Mal establecimiento de los campos de registro de usuario del google shets</t>
+  </si>
+  <si>
+    <t>Mala distribucion de los componentes graficos del form de login</t>
+  </si>
+  <si>
+    <t>Compilación</t>
+  </si>
+  <si>
+    <t>Falta de modificadores de acceso (private) en los atributos.</t>
+  </si>
+  <si>
+    <t>Ausencia de validaciones para parámetros en el constructor.</t>
+  </si>
+  <si>
+    <t>No se implementó un método setUsername() o setPassword().</t>
+  </si>
+  <si>
+    <t>Falta de anotaciones para frameworks (@Entity, @Table).</t>
+  </si>
+  <si>
+    <t>Ausencia de un constructor vacío (necesario para los frameworks).</t>
+  </si>
+  <si>
+    <t>Error en nombres de atributos (mal escrito o no estandarizado).</t>
+  </si>
+  <si>
+    <t>Almacenamiento inseguro de la contraseña (sin cifrado).</t>
+  </si>
+  <si>
+    <t>Ausencia de método toString() para depuración.</t>
+  </si>
+  <si>
+    <t>Redundancia en métodos (getClientGetMethod, getClientGetMethod1, getClientGetMethod2).</t>
+  </si>
+  <si>
+    <t>Falta de cierre adecuado de recursos (Retrofit no liberado si se recrea).</t>
+  </si>
+  <si>
+    <t>Ausencia de manejo de errores (ejemplo: try-catch para fallos de conexión).</t>
+  </si>
+  <si>
+    <t>No se implementó una interfaz común para reutilizar los clientes.</t>
+  </si>
+  <si>
+    <t>Falta de documentación en métodos e interfaces.</t>
+  </si>
+  <si>
+    <t>Posible colisión de URLs en el método @POST("exec") sin ruta base definida.</t>
+  </si>
+  <si>
+    <t>Falta de validación del cuerpo (@Body) en getStringRequestBody().</t>
+  </si>
+  <si>
+    <t>Ausencia de manejo de tiempo de espera (timeout) en la configuración de Retrofit.</t>
+  </si>
+  <si>
+    <t>No se configuró OkHttpClient para gestionar interceptores o caché.</t>
+  </si>
+  <si>
+    <t>Peligro de uso de instancias estáticas múltiples (retrofit1, retrofit2) sin control.</t>
+  </si>
+  <si>
     <t>No se maneja sesiones y todos los usuarios puedene entrar, no hay encapsulacion</t>
   </si>
   <si>
-    <t>Inicio de sesión, Entrada válida de username y password</t>
+    <t>Inicio de sesión, Entrada no válida de username y password</t>
+  </si>
+  <si>
+    <t>Mala distribucion de los componentes graficos del form de actualizar contraseña</t>
   </si>
   <si>
     <t xml:space="preserve">Cambio de contraseña, no se actualizaba el cambio </t>
   </si>
   <si>
-    <t>Codificaion</t>
+    <t>Error al realizar el submit en el form de contraseña</t>
   </si>
   <si>
     <t>El menu no se muestra de manera correcta</t>
   </si>
   <si>
-    <t xml:space="preserve">Actualización de Datos Personales, no todos los campos estaban validados y podian ingresar datos erroneos </t>
+    <t>Mala distribucion de los componentes graficos del form de incio</t>
+  </si>
+  <si>
+    <t>Error en la declaración del paquete.</t>
+  </si>
+  <si>
+    <t>Incompatibilidad de versión del JDK.</t>
+  </si>
+  <si>
+    <t>Error en el constructor por parámetros faltantes.</t>
+  </si>
+  <si>
+    <t>Falta de anotaciones para JPA/Hibernate.</t>
+  </si>
+  <si>
+    <t>Uso incorrecto de nombres de variables.</t>
+  </si>
+  <si>
+    <t>Error tipográfico en métodos setter o getter.</t>
+  </si>
+  <si>
+    <t>Falta de modificadores de acceso en atributos.</t>
+  </si>
+  <si>
+    <t>Error al importar librerías necesarias (import faltante).</t>
+  </si>
+  <si>
+    <t>Declaración de atributos con tipos de datos incorrectos.</t>
+  </si>
+  <si>
+    <t>Ausencia de constructor vacío necesario para frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización de Datos Personales, no todos los campos estaban no validados y podian ingresar datos erroneos </t>
   </si>
   <si>
     <t xml:space="preserve">La funcion actualizar no funciona en la tabla de usuarios de manera correcta </t>
   </si>
   <si>
-    <t xml:space="preserve">Codificacion </t>
+    <t>Mala distribucion de los componentes graficos del form de datos personales</t>
+  </si>
+  <si>
+    <t>Métodos de acceso (getters/setters) incompletos o faltantes.</t>
+  </si>
+  <si>
+    <t>Error en la codificación de caracteres (acentos) en setPais().</t>
+  </si>
+  <si>
+    <t>Error al realizar el submit en el form de Datos Personales</t>
   </si>
   <si>
     <t>Gestión de sugerencias, envia sugerencias sin activar el check</t>
   </si>
   <si>
+    <t>Mala distribucion de los componentes graficos del form de envio de sugerencias</t>
+  </si>
+  <si>
+    <t>No validar si response.body() es null antes de parsear el JSON.</t>
+  </si>
+  <si>
+    <t>Bloqueo de la interfaz al usar AsyncTask sin finalizar adecuadamente.</t>
+  </si>
+  <si>
+    <t>onFailure() vacío en Retrofit, sin mostrar error al usuario.</t>
+  </si>
+  <si>
+    <t>No validar la existencia de claves JSON antes de acceder a ellas.</t>
+  </si>
+  <si>
+    <t>Deshabilitación incorrecta de campos al seleccionar "No".</t>
+  </si>
+  <si>
+    <t>No manejar excepciones en call.execute() de Retrofit.</t>
+  </si>
+  <si>
+    <t>Usar múltiples instancias de Retrofit innecesariamente.</t>
+  </si>
+  <si>
+    <t>No cerrar el ProgressDialog si ocurre un error.</t>
+  </si>
+  <si>
     <t>Mal redireccionamiento a la hora de cerrar sesion</t>
+  </si>
+  <si>
+    <t>Mala distribucion de los componentes graficos del form de revision de sugerencias</t>
+  </si>
+  <si>
+    <t>No validar que los campos editTextTema y editTextDescripcion no estén vacíos antes de guardar.</t>
+  </si>
+  <si>
+    <t>Posible vulnerabilidad al no validar la entrada del usuario antes de enviarla al servidor.</t>
+  </si>
+  <si>
+    <t>No usar try-catch en la conversión de JSON en LoadData1().</t>
+  </si>
+  <si>
+    <t>Codificación redundante en la construcción del objeto JSON para Retrofit.</t>
+  </si>
+  <si>
+    <t>No liberar recursos en el ciclo de vida de la actividad.</t>
+  </si>
+  <si>
+    <t>No usar un patrón ViewModel para separar lógica de la UI.</t>
+  </si>
+  <si>
+    <t>Falta de validación de la respuesta HTTP (códigos distintos de 200).</t>
   </si>
 </sst>
 </file>
@@ -413,7 +569,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -554,6 +710,25 @@
       <b/>
       <i/>
       <color theme="1"/>
+      <name val="&quot;Book Antiqua&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Book Antiqua&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Book Antiqua&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="&quot;Book Antiqua&quot;"/>
     </font>
   </fonts>
@@ -942,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="175">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1404,6 +1579,42 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -35645,8 +35856,8 @@
         <v>82</v>
       </c>
       <c r="L3" s="142">
-        <f>SUM(L14+L21+L28+L35+L42+L49+L56+L62+L68+L74+L80)</f>
-        <v>369</v>
+        <f>SUM(L14+L21+L28+L175+L182+L196+L210+L282+L288+L318+L378+L35+L42+L49+L56+L63+L77+L84+L70+L91+L98+L105+L112+L119+L126+L133+L140+L147+L154+L161+L168+L189+L203+L216+L222+L228+L234+L240+L246+L252+L258+L264+L270+L276+L294+L300+L306+L312+L324+L330+L336+L342+L348+L354+L360+L366+L372+L384+L390+L396+L402+L408+L414+L420+L426)</f>
+        <v>827</v>
       </c>
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
@@ -35866,11 +36077,11 @@
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="158">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="158">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="159" t="s">
@@ -36010,7 +36221,7 @@
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="158">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="158">
@@ -36022,7 +36233,7 @@
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="159" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K21" s="72"/>
       <c r="L21" s="158">
@@ -36055,7 +36266,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="161" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
@@ -36154,11 +36365,11 @@
       </c>
       <c r="C28" s="72"/>
       <c r="D28" s="158">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E28" s="72"/>
       <c r="F28" s="158">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="G28" s="72"/>
       <c r="H28" s="159" t="s">
@@ -36170,7 +36381,7 @@
       </c>
       <c r="K28" s="72"/>
       <c r="L28" s="158">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="M28" s="72"/>
       <c r="N28" s="159" t="s">
@@ -36199,7 +36410,7 @@
         <v>102</v>
       </c>
       <c r="C30" s="161" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -36298,23 +36509,23 @@
       </c>
       <c r="C35" s="72"/>
       <c r="D35" s="158">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E35" s="72"/>
-      <c r="F35" s="158">
-        <v>90.0</v>
+      <c r="F35" s="163">
+        <v>20.0</v>
       </c>
       <c r="G35" s="72"/>
-      <c r="H35" s="159" t="s">
-        <v>75</v>
+      <c r="H35" s="164" t="s">
+        <v>76</v>
       </c>
       <c r="I35" s="72"/>
-      <c r="J35" s="159" t="s">
+      <c r="J35" s="164" t="s">
         <v>100</v>
       </c>
       <c r="K35" s="72"/>
       <c r="L35" s="158">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="M35" s="72"/>
       <c r="N35" s="159" t="s">
@@ -36343,19 +36554,19 @@
         <v>102</v>
       </c>
       <c r="C37" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="114"/>
+        <v>107</v>
+      </c>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="166"/>
     </row>
     <row r="38">
       <c r="A38" s="72"/>
@@ -36442,23 +36653,23 @@
       </c>
       <c r="C42" s="72"/>
       <c r="D42" s="158">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="158">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="G42" s="72"/>
-      <c r="H42" s="159" t="s">
+      <c r="H42" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="159" t="s">
-        <v>75</v>
+      <c r="I42" s="167"/>
+      <c r="J42" s="164" t="s">
+        <v>100</v>
       </c>
       <c r="K42" s="72"/>
       <c r="L42" s="158">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="M42" s="72"/>
       <c r="N42" s="159" t="s">
@@ -36487,7 +36698,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="161" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
@@ -36582,27 +36793,27 @@
     <row r="49">
       <c r="A49" s="72"/>
       <c r="B49" s="157">
-        <v>45661.0</v>
+        <v>45660.0</v>
       </c>
       <c r="C49" s="72"/>
       <c r="D49" s="158">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E49" s="72"/>
-      <c r="F49" s="158">
-        <v>90.0</v>
-      </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49" s="72"/>
-      <c r="J49" s="159" t="s">
-        <v>75</v>
+      <c r="F49" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G49" s="167"/>
+      <c r="H49" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="167"/>
+      <c r="J49" s="164" t="s">
+        <v>109</v>
       </c>
       <c r="K49" s="72"/>
       <c r="L49" s="158">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="M49" s="72"/>
       <c r="N49" s="159" t="s">
@@ -36726,27 +36937,27 @@
     <row r="56">
       <c r="A56" s="72"/>
       <c r="B56" s="157">
-        <v>45662.0</v>
+        <v>45660.0</v>
       </c>
       <c r="C56" s="72"/>
       <c r="D56" s="158">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="E56" s="72"/>
-      <c r="F56" s="158">
-        <v>90.0</v>
-      </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="159" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56" s="72"/>
-      <c r="J56" s="159" t="s">
-        <v>100</v>
+      <c r="F56" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G56" s="167"/>
+      <c r="H56" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="167"/>
+      <c r="J56" s="164" t="s">
+        <v>109</v>
       </c>
       <c r="K56" s="72"/>
       <c r="L56" s="158">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="M56" s="72"/>
       <c r="N56" s="159" t="s">
@@ -36775,7 +36986,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" s="79"/>
       <c r="E58" s="79"/>
@@ -36807,161 +37018,147 @@
     </row>
     <row r="60">
       <c r="A60" s="72"/>
-      <c r="B60" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="153"/>
-      <c r="D60" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="153"/>
-      <c r="F60" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="153"/>
-      <c r="H60" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="I60" s="153"/>
-      <c r="J60" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="K60" s="153"/>
-      <c r="L60" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="M60" s="153"/>
-      <c r="N60" s="156" t="s">
-        <v>99</v>
-      </c>
+      <c r="B60" s="118"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="143"/>
     </row>
     <row r="61">
       <c r="A61" s="72"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="143"/>
+      <c r="B61" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="153"/>
+      <c r="D61" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="153"/>
+      <c r="F61" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="153"/>
+      <c r="H61" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" s="153"/>
+      <c r="J61" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K61" s="153"/>
+      <c r="L61" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M61" s="153"/>
+      <c r="N61" s="156" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="72"/>
-      <c r="B62" s="157">
-        <v>45668.0</v>
-      </c>
+      <c r="B62" s="118"/>
       <c r="C62" s="72"/>
-      <c r="D62" s="158">
-        <v>1.0</v>
-      </c>
+      <c r="D62" s="72"/>
       <c r="E62" s="72"/>
-      <c r="F62" s="158">
-        <v>90.0</v>
-      </c>
+      <c r="F62" s="72"/>
       <c r="G62" s="72"/>
-      <c r="H62" s="159" t="s">
-        <v>76</v>
-      </c>
+      <c r="H62" s="72"/>
       <c r="I62" s="72"/>
-      <c r="J62" s="159" t="s">
-        <v>75</v>
-      </c>
+      <c r="J62" s="72"/>
       <c r="K62" s="72"/>
-      <c r="L62" s="158">
-        <v>15.0</v>
-      </c>
+      <c r="L62" s="72"/>
       <c r="M62" s="72"/>
-      <c r="N62" s="159" t="s">
-        <v>101</v>
-      </c>
+      <c r="N62" s="143"/>
     </row>
     <row r="63">
       <c r="A63" s="72"/>
-      <c r="B63" s="118"/>
+      <c r="B63" s="157">
+        <v>45660.0</v>
+      </c>
       <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
+      <c r="D63" s="158">
+        <v>8.0</v>
+      </c>
       <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
+      <c r="F63" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G63" s="167"/>
+      <c r="H63" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" s="167"/>
+      <c r="J63" s="164" t="s">
+        <v>109</v>
+      </c>
       <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
+      <c r="L63" s="158">
+        <v>13.0</v>
+      </c>
       <c r="M63" s="72"/>
-      <c r="N63" s="143"/>
+      <c r="N63" s="159" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="72"/>
-      <c r="B64" s="160" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="114"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="143"/>
     </row>
     <row r="65">
       <c r="A65" s="72"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="127"/>
-      <c r="L65" s="127"/>
-      <c r="M65" s="127"/>
-      <c r="N65" s="116"/>
+      <c r="B65" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="114"/>
     </row>
     <row r="66">
       <c r="A66" s="72"/>
-      <c r="B66" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="153"/>
-      <c r="D66" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="153"/>
-      <c r="F66" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="153"/>
-      <c r="H66" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="153"/>
-      <c r="J66" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="K66" s="153"/>
-      <c r="L66" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="M66" s="153"/>
-      <c r="N66" s="156" t="s">
-        <v>99</v>
-      </c>
+      <c r="B66" s="162"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="127"/>
+      <c r="N66" s="116"/>
     </row>
     <row r="67">
       <c r="A67" s="72"/>
@@ -36981,32 +37178,32 @@
     </row>
     <row r="68">
       <c r="A68" s="72"/>
-      <c r="B68" s="157">
-        <v>45668.0</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="158">
-        <v>10.0</v>
-      </c>
-      <c r="E68" s="72"/>
-      <c r="F68" s="158">
-        <v>90.0</v>
-      </c>
-      <c r="G68" s="72"/>
-      <c r="H68" s="159" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="72"/>
-      <c r="J68" s="159" t="s">
-        <v>100</v>
-      </c>
-      <c r="K68" s="72"/>
-      <c r="L68" s="158">
-        <v>110.0</v>
-      </c>
-      <c r="M68" s="72"/>
-      <c r="N68" s="159" t="s">
-        <v>101</v>
+      <c r="B68" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="153"/>
+      <c r="D68" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="153"/>
+      <c r="F68" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="153"/>
+      <c r="H68" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I68" s="153"/>
+      <c r="J68" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K68" s="153"/>
+      <c r="L68" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M68" s="153"/>
+      <c r="N68" s="156" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69">
@@ -37027,246 +37224,223 @@
     </row>
     <row r="70">
       <c r="A70" s="72"/>
-      <c r="B70" s="160" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="161" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="114"/>
+      <c r="B70" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C70" s="72"/>
+      <c r="D70" s="158">
+        <v>9.0</v>
+      </c>
+      <c r="E70" s="72"/>
+      <c r="F70" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="G70" s="167"/>
+      <c r="H70" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I70" s="167"/>
+      <c r="J70" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K70" s="72"/>
+      <c r="L70" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M70" s="72"/>
+      <c r="N70" s="159" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="72"/>
-      <c r="B71" s="162"/>
-      <c r="C71" s="127"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="127"/>
-      <c r="G71" s="127"/>
-      <c r="H71" s="127"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="127"/>
-      <c r="K71" s="127"/>
-      <c r="L71" s="127"/>
-      <c r="M71" s="127"/>
-      <c r="N71" s="116"/>
+      <c r="B71" s="118"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="143"/>
     </row>
     <row r="72">
       <c r="A72" s="72"/>
-      <c r="B72" s="154" t="s">
+      <c r="B72" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="161" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="114"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="162"/>
+      <c r="C73" s="127"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="127"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="127"/>
+      <c r="L73" s="127"/>
+      <c r="M73" s="127"/>
+      <c r="N73" s="116"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="118"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="143"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="153"/>
-      <c r="D72" s="155" t="s">
+      <c r="C75" s="153"/>
+      <c r="D75" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="153"/>
-      <c r="F72" s="155" t="s">
+      <c r="E75" s="153"/>
+      <c r="F75" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="G72" s="153"/>
-      <c r="H72" s="155" t="s">
+      <c r="G75" s="153"/>
+      <c r="H75" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="I72" s="153"/>
-      <c r="J72" s="155" t="s">
+      <c r="I75" s="153"/>
+      <c r="J75" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="K72" s="153"/>
-      <c r="L72" s="155" t="s">
+      <c r="K75" s="153"/>
+      <c r="L75" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="M72" s="153"/>
-      <c r="N72" s="156" t="s">
+      <c r="M75" s="153"/>
+      <c r="N75" s="156" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="72"/>
-      <c r="B73" s="118"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="143"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="72"/>
-      <c r="B74" s="157">
-        <v>45669.0</v>
-      </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="158">
-        <v>4.0</v>
-      </c>
-      <c r="E74" s="72"/>
-      <c r="F74" s="158">
+    <row r="76">
+      <c r="B76" s="118"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="143"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C77" s="72"/>
+      <c r="D77" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="E77" s="72"/>
+      <c r="F77" s="163">
         <v>80.0</v>
       </c>
-      <c r="G74" s="72"/>
-      <c r="H74" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="I74" s="72"/>
-      <c r="J74" s="159" t="s">
-        <v>115</v>
-      </c>
-      <c r="K74" s="72"/>
-      <c r="L74" s="158">
-        <v>30.0</v>
-      </c>
-      <c r="M74" s="72"/>
-      <c r="N74" s="159" t="s">
+      <c r="G77" s="167"/>
+      <c r="H77" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" s="167"/>
+      <c r="J77" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K77" s="72"/>
+      <c r="L77" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M77" s="72"/>
+      <c r="N77" s="159" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="72"/>
-      <c r="B75" s="118"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="143"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="72"/>
-      <c r="B76" s="160" t="s">
+    <row r="78">
+      <c r="B78" s="118"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="143"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="161" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="114"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="72"/>
-      <c r="B77" s="162"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="127"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="127"/>
-      <c r="L77" s="127"/>
-      <c r="M77" s="127"/>
-      <c r="N77" s="116"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="72"/>
-      <c r="B78" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="153"/>
-      <c r="D78" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="153"/>
-      <c r="F78" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" s="153"/>
-      <c r="H78" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="I78" s="153"/>
-      <c r="J78" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="K78" s="153"/>
-      <c r="L78" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="M78" s="153"/>
-      <c r="N78" s="156" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="72"/>
-      <c r="B79" s="118"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="143"/>
+      <c r="C79" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="114"/>
     </row>
     <row r="80">
-      <c r="A80" s="72"/>
-      <c r="B80" s="157">
-        <v>45670.0</v>
-      </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="158">
-        <v>9.0</v>
-      </c>
-      <c r="E80" s="72"/>
-      <c r="F80" s="158">
-        <v>100.0</v>
-      </c>
-      <c r="G80" s="72"/>
-      <c r="H80" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="I80" s="72"/>
-      <c r="J80" s="159" t="s">
-        <v>75</v>
-      </c>
-      <c r="K80" s="72"/>
-      <c r="L80" s="158">
-        <v>8.0</v>
-      </c>
-      <c r="M80" s="72"/>
-      <c r="N80" s="159" t="s">
-        <v>101</v>
-      </c>
+      <c r="B80" s="162"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="127"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="127"/>
+      <c r="M80" s="127"/>
+      <c r="N80" s="116"/>
     </row>
     <row r="81">
-      <c r="A81" s="72"/>
       <c r="B81" s="118"/>
       <c r="C81" s="72"/>
       <c r="D81" s="72"/>
@@ -37282,43 +37456,7004 @@
       <c r="N81" s="143"/>
     </row>
     <row r="82">
-      <c r="A82" s="72"/>
-      <c r="B82" s="160" t="s">
+      <c r="B82" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="153"/>
+      <c r="D82" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="153"/>
+      <c r="F82" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="153"/>
+      <c r="H82" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" s="153"/>
+      <c r="J82" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K82" s="153"/>
+      <c r="L82" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M82" s="153"/>
+      <c r="N82" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="118"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="143"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C84" s="72"/>
+      <c r="D84" s="158">
+        <v>11.0</v>
+      </c>
+      <c r="E84" s="72"/>
+      <c r="F84" s="163">
+        <v>20.0</v>
+      </c>
+      <c r="G84" s="167"/>
+      <c r="H84" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84" s="167"/>
+      <c r="J84" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K84" s="72"/>
+      <c r="L84" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M84" s="72"/>
+      <c r="N84" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="118"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="143"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="161" t="s">
+      <c r="C86" s="161" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="114"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="162"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="127"/>
+      <c r="L87" s="127"/>
+      <c r="M87" s="127"/>
+      <c r="N87" s="116"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="118"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="143"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="153"/>
+      <c r="D89" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="153"/>
+      <c r="F89" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="153"/>
+      <c r="H89" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I89" s="153"/>
+      <c r="J89" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K89" s="153"/>
+      <c r="L89" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M89" s="153"/>
+      <c r="N89" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="118"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="143"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C91" s="72"/>
+      <c r="D91" s="158">
+        <v>12.0</v>
+      </c>
+      <c r="E91" s="72"/>
+      <c r="F91" s="163">
+        <v>100.0</v>
+      </c>
+      <c r="G91" s="167"/>
+      <c r="H91" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91" s="167"/>
+      <c r="J91" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" s="72"/>
+      <c r="L91" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M91" s="72"/>
+      <c r="N91" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="118"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="72"/>
+      <c r="N92" s="143"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="165"/>
+      <c r="E93" s="165"/>
+      <c r="F93" s="165"/>
+      <c r="G93" s="165"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="165"/>
+      <c r="J93" s="165"/>
+      <c r="K93" s="165"/>
+      <c r="L93" s="165"/>
+      <c r="M93" s="165"/>
+      <c r="N93" s="166"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="162"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="127"/>
+      <c r="I94" s="127"/>
+      <c r="J94" s="127"/>
+      <c r="K94" s="127"/>
+      <c r="L94" s="127"/>
+      <c r="M94" s="127"/>
+      <c r="N94" s="116"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="118"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="72"/>
+      <c r="N95" s="143"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="153"/>
+      <c r="D96" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="153"/>
+      <c r="F96" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" s="153"/>
+      <c r="H96" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I96" s="153"/>
+      <c r="J96" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K96" s="153"/>
+      <c r="L96" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M96" s="153"/>
+      <c r="N96" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="118"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="143"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C98" s="72"/>
+      <c r="D98" s="158">
+        <v>13.0</v>
+      </c>
+      <c r="E98" s="72"/>
+      <c r="F98" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G98" s="167"/>
+      <c r="H98" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="167"/>
+      <c r="J98" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" s="72"/>
+      <c r="L98" s="158">
+        <v>9.0</v>
+      </c>
+      <c r="M98" s="72"/>
+      <c r="N98" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="118"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="143"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="114"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="72"/>
-      <c r="B83" s="162"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="127"/>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
-      <c r="N83" s="116"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="165"/>
+      <c r="G100" s="165"/>
+      <c r="H100" s="165"/>
+      <c r="I100" s="165"/>
+      <c r="J100" s="165"/>
+      <c r="K100" s="165"/>
+      <c r="L100" s="165"/>
+      <c r="M100" s="165"/>
+      <c r="N100" s="166"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="162"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+      <c r="H101" s="127"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="127"/>
+      <c r="K101" s="127"/>
+      <c r="L101" s="127"/>
+      <c r="M101" s="127"/>
+      <c r="N101" s="116"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="118"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="143"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="153"/>
+      <c r="D103" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="153"/>
+      <c r="F103" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="153"/>
+      <c r="H103" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I103" s="153"/>
+      <c r="J103" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K103" s="153"/>
+      <c r="L103" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M103" s="153"/>
+      <c r="N103" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="118"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="143"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C105" s="72"/>
+      <c r="D105" s="158">
+        <v>14.0</v>
+      </c>
+      <c r="E105" s="72"/>
+      <c r="F105" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G105" s="167"/>
+      <c r="H105" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I105" s="167"/>
+      <c r="J105" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K105" s="72"/>
+      <c r="L105" s="158">
+        <v>8.0</v>
+      </c>
+      <c r="M105" s="72"/>
+      <c r="N105" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="118"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="72"/>
+      <c r="N106" s="143"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" s="168" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="165"/>
+      <c r="K107" s="165"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="165"/>
+      <c r="N107" s="166"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="162"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="127"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="127"/>
+      <c r="L108" s="127"/>
+      <c r="M108" s="127"/>
+      <c r="N108" s="116"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="118"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
+      <c r="L109" s="72"/>
+      <c r="M109" s="72"/>
+      <c r="N109" s="143"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="153"/>
+      <c r="D110" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" s="153"/>
+      <c r="F110" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G110" s="153"/>
+      <c r="H110" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I110" s="153"/>
+      <c r="J110" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K110" s="153"/>
+      <c r="L110" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M110" s="153"/>
+      <c r="N110" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="118"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="143"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C112" s="72"/>
+      <c r="D112" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="E112" s="72"/>
+      <c r="F112" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G112" s="167"/>
+      <c r="H112" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112" s="167"/>
+      <c r="J112" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K112" s="72"/>
+      <c r="L112" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M112" s="72"/>
+      <c r="N112" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="118"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="143"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="79"/>
+      <c r="I114" s="79"/>
+      <c r="J114" s="79"/>
+      <c r="K114" s="79"/>
+      <c r="L114" s="79"/>
+      <c r="M114" s="79"/>
+      <c r="N114" s="114"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="162"/>
+      <c r="C115" s="127"/>
+      <c r="D115" s="127"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="127"/>
+      <c r="G115" s="127"/>
+      <c r="H115" s="127"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="127"/>
+      <c r="K115" s="127"/>
+      <c r="L115" s="127"/>
+      <c r="M115" s="127"/>
+      <c r="N115" s="116"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="118"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="72"/>
+      <c r="M116" s="72"/>
+      <c r="N116" s="143"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="153"/>
+      <c r="D117" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="153"/>
+      <c r="F117" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G117" s="153"/>
+      <c r="H117" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117" s="153"/>
+      <c r="J117" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K117" s="153"/>
+      <c r="L117" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M117" s="153"/>
+      <c r="N117" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="118"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="72"/>
+      <c r="M118" s="72"/>
+      <c r="N118" s="143"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C119" s="72"/>
+      <c r="D119" s="158">
+        <v>16.0</v>
+      </c>
+      <c r="E119" s="72"/>
+      <c r="F119" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G119" s="167"/>
+      <c r="H119" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119" s="167"/>
+      <c r="J119" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K119" s="72"/>
+      <c r="L119" s="158">
+        <v>12.0</v>
+      </c>
+      <c r="M119" s="72"/>
+      <c r="N119" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="118"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="72"/>
+      <c r="N120" s="143"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="165"/>
+      <c r="E121" s="165"/>
+      <c r="F121" s="165"/>
+      <c r="G121" s="165"/>
+      <c r="H121" s="165"/>
+      <c r="I121" s="165"/>
+      <c r="J121" s="165"/>
+      <c r="K121" s="165"/>
+      <c r="L121" s="165"/>
+      <c r="M121" s="165"/>
+      <c r="N121" s="166"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="162"/>
+      <c r="C122" s="127"/>
+      <c r="D122" s="127"/>
+      <c r="E122" s="127"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="127"/>
+      <c r="H122" s="127"/>
+      <c r="I122" s="127"/>
+      <c r="J122" s="127"/>
+      <c r="K122" s="127"/>
+      <c r="L122" s="127"/>
+      <c r="M122" s="127"/>
+      <c r="N122" s="116"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="118"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="72"/>
+      <c r="M123" s="72"/>
+      <c r="N123" s="143"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="153"/>
+      <c r="D124" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="153"/>
+      <c r="F124" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G124" s="153"/>
+      <c r="H124" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I124" s="153"/>
+      <c r="J124" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K124" s="153"/>
+      <c r="L124" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M124" s="153"/>
+      <c r="N124" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="118"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="72"/>
+      <c r="M125" s="72"/>
+      <c r="N125" s="143"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C126" s="72"/>
+      <c r="D126" s="158">
+        <v>17.0</v>
+      </c>
+      <c r="E126" s="72"/>
+      <c r="F126" s="163">
+        <v>100.0</v>
+      </c>
+      <c r="G126" s="167"/>
+      <c r="H126" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126" s="167"/>
+      <c r="J126" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K126" s="72"/>
+      <c r="L126" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M126" s="72"/>
+      <c r="N126" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="118"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="72"/>
+      <c r="N127" s="143"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" s="165"/>
+      <c r="E128" s="165"/>
+      <c r="F128" s="165"/>
+      <c r="G128" s="165"/>
+      <c r="H128" s="165"/>
+      <c r="I128" s="165"/>
+      <c r="J128" s="165"/>
+      <c r="K128" s="165"/>
+      <c r="L128" s="165"/>
+      <c r="M128" s="165"/>
+      <c r="N128" s="166"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="162"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="127"/>
+      <c r="E129" s="127"/>
+      <c r="F129" s="127"/>
+      <c r="G129" s="127"/>
+      <c r="H129" s="127"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="127"/>
+      <c r="K129" s="127"/>
+      <c r="L129" s="127"/>
+      <c r="M129" s="127"/>
+      <c r="N129" s="116"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="118"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="72"/>
+      <c r="M130" s="72"/>
+      <c r="N130" s="143"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="153"/>
+      <c r="D131" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="153"/>
+      <c r="F131" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="153"/>
+      <c r="H131" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I131" s="153"/>
+      <c r="J131" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K131" s="153"/>
+      <c r="L131" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M131" s="153"/>
+      <c r="N131" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="118"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="72"/>
+      <c r="M132" s="72"/>
+      <c r="N132" s="143"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C133" s="72"/>
+      <c r="D133" s="158">
+        <v>18.0</v>
+      </c>
+      <c r="E133" s="72"/>
+      <c r="F133" s="163">
+        <v>10.0</v>
+      </c>
+      <c r="G133" s="167"/>
+      <c r="H133" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133" s="167"/>
+      <c r="J133" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K133" s="72"/>
+      <c r="L133" s="158">
+        <v>8.0</v>
+      </c>
+      <c r="M133" s="72"/>
+      <c r="N133" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="118"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="72"/>
+      <c r="M134" s="72"/>
+      <c r="N134" s="143"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="165"/>
+      <c r="E135" s="165"/>
+      <c r="F135" s="165"/>
+      <c r="G135" s="165"/>
+      <c r="H135" s="165"/>
+      <c r="I135" s="165"/>
+      <c r="J135" s="165"/>
+      <c r="K135" s="165"/>
+      <c r="L135" s="165"/>
+      <c r="M135" s="165"/>
+      <c r="N135" s="166"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="162"/>
+      <c r="C136" s="127"/>
+      <c r="D136" s="127"/>
+      <c r="E136" s="127"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="127"/>
+      <c r="H136" s="127"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="127"/>
+      <c r="K136" s="127"/>
+      <c r="L136" s="127"/>
+      <c r="M136" s="127"/>
+      <c r="N136" s="116"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="118"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="72"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="72"/>
+      <c r="N137" s="143"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="153"/>
+      <c r="D138" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E138" s="153"/>
+      <c r="F138" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G138" s="153"/>
+      <c r="H138" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I138" s="153"/>
+      <c r="J138" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K138" s="153"/>
+      <c r="L138" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M138" s="153"/>
+      <c r="N138" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="118"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="72"/>
+      <c r="N139" s="143"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C140" s="72"/>
+      <c r="D140" s="158">
+        <v>19.0</v>
+      </c>
+      <c r="E140" s="72"/>
+      <c r="F140" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G140" s="167"/>
+      <c r="H140" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140" s="167"/>
+      <c r="J140" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K140" s="72"/>
+      <c r="L140" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M140" s="72"/>
+      <c r="N140" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="118"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="143"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="D142" s="165"/>
+      <c r="E142" s="165"/>
+      <c r="F142" s="165"/>
+      <c r="G142" s="165"/>
+      <c r="H142" s="165"/>
+      <c r="I142" s="165"/>
+      <c r="J142" s="165"/>
+      <c r="K142" s="165"/>
+      <c r="L142" s="165"/>
+      <c r="M142" s="165"/>
+      <c r="N142" s="166"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="162"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="127"/>
+      <c r="E143" s="127"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="127"/>
+      <c r="H143" s="127"/>
+      <c r="I143" s="127"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="127"/>
+      <c r="L143" s="127"/>
+      <c r="M143" s="127"/>
+      <c r="N143" s="116"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="118"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="N144" s="143"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="153"/>
+      <c r="D145" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E145" s="153"/>
+      <c r="F145" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G145" s="153"/>
+      <c r="H145" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I145" s="153"/>
+      <c r="J145" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K145" s="153"/>
+      <c r="L145" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M145" s="153"/>
+      <c r="N145" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="118"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="72"/>
+      <c r="N146" s="143"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C147" s="72"/>
+      <c r="D147" s="163">
+        <v>20.0</v>
+      </c>
+      <c r="E147" s="167"/>
+      <c r="F147" s="164">
+        <v>60.0</v>
+      </c>
+      <c r="G147" s="167"/>
+      <c r="H147" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147" s="72"/>
+      <c r="J147" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K147" s="72"/>
+      <c r="L147" s="158">
+        <v>3.0</v>
+      </c>
+      <c r="M147" s="72"/>
+      <c r="N147" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="118"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="72"/>
+      <c r="N148" s="143"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149" s="165"/>
+      <c r="E149" s="165"/>
+      <c r="F149" s="165"/>
+      <c r="G149" s="165"/>
+      <c r="H149" s="165"/>
+      <c r="I149" s="165"/>
+      <c r="J149" s="165"/>
+      <c r="K149" s="165"/>
+      <c r="L149" s="165"/>
+      <c r="M149" s="165"/>
+      <c r="N149" s="166"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="162"/>
+      <c r="C150" s="127"/>
+      <c r="D150" s="127"/>
+      <c r="E150" s="127"/>
+      <c r="F150" s="127"/>
+      <c r="G150" s="127"/>
+      <c r="H150" s="127"/>
+      <c r="I150" s="127"/>
+      <c r="J150" s="127"/>
+      <c r="K150" s="127"/>
+      <c r="L150" s="127"/>
+      <c r="M150" s="127"/>
+      <c r="N150" s="116"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="118"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="72"/>
+      <c r="H151" s="72"/>
+      <c r="I151" s="72"/>
+      <c r="J151" s="72"/>
+      <c r="K151" s="72"/>
+      <c r="L151" s="72"/>
+      <c r="M151" s="72"/>
+      <c r="N151" s="143"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="153"/>
+      <c r="D152" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E152" s="153"/>
+      <c r="F152" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G152" s="153"/>
+      <c r="H152" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I152" s="153"/>
+      <c r="J152" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K152" s="153"/>
+      <c r="L152" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M152" s="153"/>
+      <c r="N152" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="118"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
+      <c r="K153" s="72"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="72"/>
+      <c r="N153" s="143"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C154" s="72"/>
+      <c r="D154" s="158">
+        <v>21.0</v>
+      </c>
+      <c r="E154" s="72"/>
+      <c r="F154" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G154" s="167"/>
+      <c r="H154" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I154" s="167"/>
+      <c r="J154" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K154" s="72"/>
+      <c r="L154" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M154" s="72"/>
+      <c r="N154" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="118"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="72"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="72"/>
+      <c r="K155" s="72"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="72"/>
+      <c r="N155" s="143"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="168" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156" s="165"/>
+      <c r="E156" s="165"/>
+      <c r="F156" s="165"/>
+      <c r="G156" s="165"/>
+      <c r="H156" s="165"/>
+      <c r="I156" s="165"/>
+      <c r="J156" s="165"/>
+      <c r="K156" s="165"/>
+      <c r="L156" s="165"/>
+      <c r="M156" s="165"/>
+      <c r="N156" s="166"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="162"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="127"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="127"/>
+      <c r="L157" s="127"/>
+      <c r="M157" s="127"/>
+      <c r="N157" s="116"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="118"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="72"/>
+      <c r="H158" s="72"/>
+      <c r="I158" s="72"/>
+      <c r="J158" s="72"/>
+      <c r="K158" s="72"/>
+      <c r="L158" s="72"/>
+      <c r="M158" s="72"/>
+      <c r="N158" s="143"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="153"/>
+      <c r="D159" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E159" s="153"/>
+      <c r="F159" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G159" s="153"/>
+      <c r="H159" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I159" s="153"/>
+      <c r="J159" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K159" s="153"/>
+      <c r="L159" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M159" s="153"/>
+      <c r="N159" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="118"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
+      <c r="K160" s="72"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="72"/>
+      <c r="N160" s="143"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C161" s="72"/>
+      <c r="D161" s="158">
+        <v>22.0</v>
+      </c>
+      <c r="E161" s="72"/>
+      <c r="F161" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G161" s="167"/>
+      <c r="H161" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I161" s="167"/>
+      <c r="J161" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K161" s="72"/>
+      <c r="L161" s="158">
+        <v>17.0</v>
+      </c>
+      <c r="M161" s="72"/>
+      <c r="N161" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="118"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="72"/>
+      <c r="N162" s="143"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C163" s="168" t="s">
+        <v>126</v>
+      </c>
+      <c r="D163" s="165"/>
+      <c r="E163" s="165"/>
+      <c r="F163" s="165"/>
+      <c r="G163" s="165"/>
+      <c r="H163" s="165"/>
+      <c r="I163" s="165"/>
+      <c r="J163" s="165"/>
+      <c r="K163" s="165"/>
+      <c r="L163" s="165"/>
+      <c r="M163" s="165"/>
+      <c r="N163" s="166"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="162"/>
+      <c r="C164" s="127"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="127"/>
+      <c r="I164" s="127"/>
+      <c r="J164" s="127"/>
+      <c r="K164" s="127"/>
+      <c r="L164" s="127"/>
+      <c r="M164" s="127"/>
+      <c r="N164" s="116"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="118"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="72"/>
+      <c r="E165" s="72"/>
+      <c r="F165" s="72"/>
+      <c r="G165" s="72"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="72"/>
+      <c r="K165" s="72"/>
+      <c r="L165" s="72"/>
+      <c r="M165" s="72"/>
+      <c r="N165" s="143"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="153"/>
+      <c r="D166" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E166" s="153"/>
+      <c r="F166" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G166" s="153"/>
+      <c r="H166" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I166" s="153"/>
+      <c r="J166" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K166" s="153"/>
+      <c r="L166" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M166" s="153"/>
+      <c r="N166" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="118"/>
+      <c r="C167" s="72"/>
+      <c r="D167" s="72"/>
+      <c r="E167" s="72"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="72"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="72"/>
+      <c r="K167" s="72"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="72"/>
+      <c r="N167" s="143"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C168" s="72"/>
+      <c r="D168" s="158">
+        <v>23.0</v>
+      </c>
+      <c r="E168" s="72"/>
+      <c r="F168" s="163">
+        <v>90.0</v>
+      </c>
+      <c r="G168" s="167"/>
+      <c r="H168" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I168" s="167"/>
+      <c r="J168" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K168" s="72"/>
+      <c r="L168" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M168" s="72"/>
+      <c r="N168" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="118"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="72"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
+      <c r="N169" s="143"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C170" s="168" t="s">
+        <v>127</v>
+      </c>
+      <c r="D170" s="165"/>
+      <c r="E170" s="165"/>
+      <c r="F170" s="165"/>
+      <c r="G170" s="165"/>
+      <c r="H170" s="165"/>
+      <c r="I170" s="165"/>
+      <c r="J170" s="165"/>
+      <c r="K170" s="165"/>
+      <c r="L170" s="165"/>
+      <c r="M170" s="165"/>
+      <c r="N170" s="166"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="162"/>
+      <c r="C171" s="127"/>
+      <c r="D171" s="127"/>
+      <c r="E171" s="127"/>
+      <c r="F171" s="127"/>
+      <c r="G171" s="127"/>
+      <c r="H171" s="127"/>
+      <c r="I171" s="127"/>
+      <c r="J171" s="127"/>
+      <c r="K171" s="127"/>
+      <c r="L171" s="127"/>
+      <c r="M171" s="127"/>
+      <c r="N171" s="116"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="118"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="72"/>
+      <c r="L172" s="72"/>
+      <c r="M172" s="72"/>
+      <c r="N172" s="143"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="153"/>
+      <c r="D173" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E173" s="153"/>
+      <c r="F173" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G173" s="153"/>
+      <c r="H173" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I173" s="153"/>
+      <c r="J173" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K173" s="153"/>
+      <c r="L173" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M173" s="153"/>
+      <c r="N173" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="118"/>
+      <c r="C174" s="72"/>
+      <c r="D174" s="72"/>
+      <c r="E174" s="72"/>
+      <c r="F174" s="72"/>
+      <c r="G174" s="72"/>
+      <c r="H174" s="72"/>
+      <c r="I174" s="72"/>
+      <c r="J174" s="72"/>
+      <c r="K174" s="72"/>
+      <c r="L174" s="72"/>
+      <c r="M174" s="72"/>
+      <c r="N174" s="143"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C175" s="72"/>
+      <c r="D175" s="158">
+        <v>24.0</v>
+      </c>
+      <c r="E175" s="72"/>
+      <c r="F175" s="158">
+        <v>70.0</v>
+      </c>
+      <c r="G175" s="72"/>
+      <c r="H175" s="159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175" s="72"/>
+      <c r="J175" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="K175" s="72"/>
+      <c r="L175" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M175" s="72"/>
+      <c r="N175" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="118"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="72"/>
+      <c r="H176" s="72"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="72"/>
+      <c r="K176" s="72"/>
+      <c r="L176" s="72"/>
+      <c r="M176" s="72"/>
+      <c r="N176" s="143"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" s="79"/>
+      <c r="E177" s="79"/>
+      <c r="F177" s="79"/>
+      <c r="G177" s="79"/>
+      <c r="H177" s="79"/>
+      <c r="I177" s="79"/>
+      <c r="J177" s="79"/>
+      <c r="K177" s="79"/>
+      <c r="L177" s="79"/>
+      <c r="M177" s="79"/>
+      <c r="N177" s="114"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="72"/>
+      <c r="B178" s="162"/>
+      <c r="C178" s="127"/>
+      <c r="D178" s="127"/>
+      <c r="E178" s="127"/>
+      <c r="F178" s="127"/>
+      <c r="G178" s="127"/>
+      <c r="H178" s="127"/>
+      <c r="I178" s="127"/>
+      <c r="J178" s="127"/>
+      <c r="K178" s="127"/>
+      <c r="L178" s="127"/>
+      <c r="M178" s="127"/>
+      <c r="N178" s="116"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="72"/>
+      <c r="B179" s="118"/>
+      <c r="C179" s="72"/>
+      <c r="D179" s="72"/>
+      <c r="E179" s="72"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="72"/>
+      <c r="H179" s="72"/>
+      <c r="I179" s="72"/>
+      <c r="J179" s="72"/>
+      <c r="K179" s="72"/>
+      <c r="L179" s="72"/>
+      <c r="M179" s="72"/>
+      <c r="N179" s="143"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="72"/>
+      <c r="B180" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="153"/>
+      <c r="D180" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E180" s="153"/>
+      <c r="F180" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G180" s="153"/>
+      <c r="H180" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I180" s="153"/>
+      <c r="J180" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K180" s="153"/>
+      <c r="L180" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M180" s="153"/>
+      <c r="N180" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="72"/>
+      <c r="B181" s="118"/>
+      <c r="C181" s="72"/>
+      <c r="D181" s="73"/>
+      <c r="E181" s="72"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="72"/>
+      <c r="H181" s="72"/>
+      <c r="I181" s="72"/>
+      <c r="J181" s="72"/>
+      <c r="K181" s="72"/>
+      <c r="L181" s="72"/>
+      <c r="M181" s="72"/>
+      <c r="N181" s="143"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="72"/>
+      <c r="B182" s="157">
+        <v>45660.0</v>
+      </c>
+      <c r="C182" s="72"/>
+      <c r="D182" s="158">
+        <v>25.0</v>
+      </c>
+      <c r="E182" s="72"/>
+      <c r="F182" s="158">
+        <v>60.0</v>
+      </c>
+      <c r="G182" s="72"/>
+      <c r="H182" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I182" s="72"/>
+      <c r="J182" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="K182" s="72"/>
+      <c r="L182" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M182" s="72"/>
+      <c r="N182" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="72"/>
+      <c r="B183" s="118"/>
+      <c r="C183" s="72"/>
+      <c r="D183" s="72"/>
+      <c r="E183" s="72"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="72"/>
+      <c r="H183" s="72"/>
+      <c r="I183" s="72"/>
+      <c r="J183" s="72"/>
+      <c r="K183" s="72"/>
+      <c r="L183" s="72"/>
+      <c r="M183" s="72"/>
+      <c r="N183" s="143"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="72"/>
+      <c r="B184" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C184" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="79"/>
+      <c r="E184" s="79"/>
+      <c r="F184" s="79"/>
+      <c r="G184" s="79"/>
+      <c r="H184" s="79"/>
+      <c r="I184" s="79"/>
+      <c r="J184" s="79"/>
+      <c r="K184" s="79"/>
+      <c r="L184" s="79"/>
+      <c r="M184" s="79"/>
+      <c r="N184" s="114"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="72"/>
+      <c r="B185" s="162"/>
+      <c r="C185" s="127"/>
+      <c r="D185" s="127"/>
+      <c r="E185" s="127"/>
+      <c r="F185" s="127"/>
+      <c r="G185" s="127"/>
+      <c r="H185" s="127"/>
+      <c r="I185" s="127"/>
+      <c r="J185" s="127"/>
+      <c r="K185" s="127"/>
+      <c r="L185" s="127"/>
+      <c r="M185" s="127"/>
+      <c r="N185" s="116"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="72"/>
+      <c r="B186" s="118"/>
+      <c r="C186" s="72"/>
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="72"/>
+      <c r="H186" s="72"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72"/>
+      <c r="K186" s="72"/>
+      <c r="L186" s="72"/>
+      <c r="M186" s="72"/>
+      <c r="N186" s="143"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="72"/>
+      <c r="B187" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="153"/>
+      <c r="D187" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E187" s="153"/>
+      <c r="F187" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G187" s="153"/>
+      <c r="H187" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I187" s="153"/>
+      <c r="J187" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K187" s="153"/>
+      <c r="L187" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M187" s="153"/>
+      <c r="N187" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="72"/>
+      <c r="B188" s="118"/>
+      <c r="C188" s="72"/>
+      <c r="D188" s="73"/>
+      <c r="E188" s="72"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="72"/>
+      <c r="H188" s="72"/>
+      <c r="I188" s="72"/>
+      <c r="J188" s="72"/>
+      <c r="K188" s="72"/>
+      <c r="L188" s="72"/>
+      <c r="M188" s="72"/>
+      <c r="N188" s="143"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="72"/>
+      <c r="B189" s="157">
+        <v>45661.0</v>
+      </c>
+      <c r="C189" s="72"/>
+      <c r="D189" s="158">
+        <v>26.0</v>
+      </c>
+      <c r="E189" s="72"/>
+      <c r="F189" s="169">
+        <v>50.0</v>
+      </c>
+      <c r="G189" s="167"/>
+      <c r="H189" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189" s="167"/>
+      <c r="J189" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="K189" s="72"/>
+      <c r="L189" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M189" s="72"/>
+      <c r="N189" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="72"/>
+      <c r="B190" s="118"/>
+      <c r="C190" s="72"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="72"/>
+      <c r="G190" s="72"/>
+      <c r="H190" s="72"/>
+      <c r="I190" s="72"/>
+      <c r="J190" s="72"/>
+      <c r="K190" s="72"/>
+      <c r="L190" s="72"/>
+      <c r="M190" s="72"/>
+      <c r="N190" s="143"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="72"/>
+      <c r="B191" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C191" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
+      <c r="F191" s="79"/>
+      <c r="G191" s="79"/>
+      <c r="H191" s="79"/>
+      <c r="I191" s="79"/>
+      <c r="J191" s="79"/>
+      <c r="K191" s="79"/>
+      <c r="L191" s="79"/>
+      <c r="M191" s="79"/>
+      <c r="N191" s="114"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="72"/>
+      <c r="B192" s="162"/>
+      <c r="C192" s="127"/>
+      <c r="D192" s="127"/>
+      <c r="E192" s="127"/>
+      <c r="F192" s="127"/>
+      <c r="G192" s="127"/>
+      <c r="H192" s="127"/>
+      <c r="I192" s="127"/>
+      <c r="J192" s="127"/>
+      <c r="K192" s="127"/>
+      <c r="L192" s="127"/>
+      <c r="M192" s="127"/>
+      <c r="N192" s="116"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="118"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="72"/>
+      <c r="E193" s="72"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="72"/>
+      <c r="H193" s="72"/>
+      <c r="I193" s="72"/>
+      <c r="J193" s="72"/>
+      <c r="K193" s="72"/>
+      <c r="L193" s="72"/>
+      <c r="M193" s="72"/>
+      <c r="N193" s="143"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="153"/>
+      <c r="D194" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E194" s="153"/>
+      <c r="F194" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G194" s="153"/>
+      <c r="H194" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I194" s="153"/>
+      <c r="J194" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K194" s="153"/>
+      <c r="L194" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M194" s="153"/>
+      <c r="N194" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="118"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
+      <c r="I195" s="72"/>
+      <c r="J195" s="72"/>
+      <c r="K195" s="72"/>
+      <c r="L195" s="72"/>
+      <c r="M195" s="72"/>
+      <c r="N195" s="143"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="157">
+        <v>45661.0</v>
+      </c>
+      <c r="C196" s="72"/>
+      <c r="D196" s="158">
+        <v>27.0</v>
+      </c>
+      <c r="E196" s="72"/>
+      <c r="F196" s="158">
+        <v>90.0</v>
+      </c>
+      <c r="G196" s="72"/>
+      <c r="H196" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I196" s="72"/>
+      <c r="J196" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="K196" s="72"/>
+      <c r="L196" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M196" s="72"/>
+      <c r="N196" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="118"/>
+      <c r="C197" s="72"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="72"/>
+      <c r="G197" s="72"/>
+      <c r="H197" s="72"/>
+      <c r="I197" s="72"/>
+      <c r="J197" s="72"/>
+      <c r="K197" s="72"/>
+      <c r="L197" s="72"/>
+      <c r="M197" s="72"/>
+      <c r="N197" s="143"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C198" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="D198" s="79"/>
+      <c r="E198" s="79"/>
+      <c r="F198" s="79"/>
+      <c r="G198" s="79"/>
+      <c r="H198" s="79"/>
+      <c r="I198" s="79"/>
+      <c r="J198" s="79"/>
+      <c r="K198" s="79"/>
+      <c r="L198" s="79"/>
+      <c r="M198" s="79"/>
+      <c r="N198" s="114"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="162"/>
+      <c r="C199" s="127"/>
+      <c r="D199" s="127"/>
+      <c r="E199" s="127"/>
+      <c r="F199" s="127"/>
+      <c r="G199" s="127"/>
+      <c r="H199" s="127"/>
+      <c r="I199" s="127"/>
+      <c r="J199" s="127"/>
+      <c r="K199" s="127"/>
+      <c r="L199" s="127"/>
+      <c r="M199" s="127"/>
+      <c r="N199" s="116"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="118"/>
+      <c r="C200" s="72"/>
+      <c r="D200" s="72"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="72"/>
+      <c r="G200" s="72"/>
+      <c r="H200" s="72"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="72"/>
+      <c r="K200" s="72"/>
+      <c r="L200" s="72"/>
+      <c r="M200" s="72"/>
+      <c r="N200" s="143"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="153"/>
+      <c r="D201" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E201" s="153"/>
+      <c r="F201" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G201" s="153"/>
+      <c r="H201" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I201" s="153"/>
+      <c r="J201" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K201" s="153"/>
+      <c r="L201" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M201" s="153"/>
+      <c r="N201" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="118"/>
+      <c r="C202" s="72"/>
+      <c r="D202" s="72"/>
+      <c r="E202" s="72"/>
+      <c r="F202" s="72"/>
+      <c r="G202" s="72"/>
+      <c r="H202" s="72"/>
+      <c r="I202" s="72"/>
+      <c r="J202" s="72"/>
+      <c r="K202" s="72"/>
+      <c r="L202" s="72"/>
+      <c r="M202" s="72"/>
+      <c r="N202" s="143"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="157">
+        <v>45661.0</v>
+      </c>
+      <c r="C203" s="72"/>
+      <c r="D203" s="158">
+        <v>28.0</v>
+      </c>
+      <c r="E203" s="72"/>
+      <c r="F203" s="158">
+        <v>80.0</v>
+      </c>
+      <c r="G203" s="72"/>
+      <c r="H203" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I203" s="72"/>
+      <c r="J203" s="159" t="s">
+        <v>109</v>
+      </c>
+      <c r="K203" s="72"/>
+      <c r="L203" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M203" s="72"/>
+      <c r="N203" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="118"/>
+      <c r="C204" s="72"/>
+      <c r="D204" s="72"/>
+      <c r="E204" s="72"/>
+      <c r="F204" s="72"/>
+      <c r="G204" s="72"/>
+      <c r="H204" s="72"/>
+      <c r="I204" s="72"/>
+      <c r="J204" s="72"/>
+      <c r="K204" s="72"/>
+      <c r="L204" s="72"/>
+      <c r="M204" s="72"/>
+      <c r="N204" s="143"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C205" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="D205" s="79"/>
+      <c r="E205" s="79"/>
+      <c r="F205" s="79"/>
+      <c r="G205" s="79"/>
+      <c r="H205" s="79"/>
+      <c r="I205" s="79"/>
+      <c r="J205" s="79"/>
+      <c r="K205" s="79"/>
+      <c r="L205" s="79"/>
+      <c r="M205" s="79"/>
+      <c r="N205" s="114"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="162"/>
+      <c r="C206" s="127"/>
+      <c r="D206" s="127"/>
+      <c r="E206" s="127"/>
+      <c r="F206" s="127"/>
+      <c r="G206" s="127"/>
+      <c r="H206" s="127"/>
+      <c r="I206" s="127"/>
+      <c r="J206" s="127"/>
+      <c r="K206" s="127"/>
+      <c r="L206" s="127"/>
+      <c r="M206" s="127"/>
+      <c r="N206" s="116"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="118"/>
+      <c r="C207" s="72"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="72"/>
+      <c r="H207" s="72"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="72"/>
+      <c r="L207" s="72"/>
+      <c r="M207" s="72"/>
+      <c r="N207" s="143"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="153"/>
+      <c r="D208" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E208" s="153"/>
+      <c r="F208" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G208" s="153"/>
+      <c r="H208" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I208" s="153"/>
+      <c r="J208" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K208" s="153"/>
+      <c r="L208" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M208" s="153"/>
+      <c r="N208" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="118"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="72"/>
+      <c r="G209" s="72"/>
+      <c r="H209" s="72"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="72"/>
+      <c r="L209" s="72"/>
+      <c r="M209" s="72"/>
+      <c r="N209" s="143"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C210" s="72"/>
+      <c r="D210" s="158">
+        <v>29.0</v>
+      </c>
+      <c r="E210" s="72"/>
+      <c r="F210" s="158">
+        <v>50.0</v>
+      </c>
+      <c r="G210" s="72"/>
+      <c r="H210" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I210" s="72"/>
+      <c r="J210" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="K210" s="72"/>
+      <c r="L210" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M210" s="72"/>
+      <c r="N210" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="118"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="72"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="72"/>
+      <c r="N211" s="143"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C212" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="D212" s="79"/>
+      <c r="E212" s="79"/>
+      <c r="F212" s="79"/>
+      <c r="G212" s="79"/>
+      <c r="H212" s="79"/>
+      <c r="I212" s="79"/>
+      <c r="J212" s="79"/>
+      <c r="K212" s="79"/>
+      <c r="L212" s="79"/>
+      <c r="M212" s="79"/>
+      <c r="N212" s="114"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="162"/>
+      <c r="C213" s="127"/>
+      <c r="D213" s="127"/>
+      <c r="E213" s="127"/>
+      <c r="F213" s="127"/>
+      <c r="G213" s="127"/>
+      <c r="H213" s="127"/>
+      <c r="I213" s="127"/>
+      <c r="J213" s="127"/>
+      <c r="K213" s="127"/>
+      <c r="L213" s="127"/>
+      <c r="M213" s="127"/>
+      <c r="N213" s="116"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="153"/>
+      <c r="D214" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E214" s="153"/>
+      <c r="F214" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G214" s="153"/>
+      <c r="H214" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I214" s="153"/>
+      <c r="J214" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K214" s="153"/>
+      <c r="L214" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M214" s="153"/>
+      <c r="N214" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="118"/>
+      <c r="C215" s="72"/>
+      <c r="D215" s="72"/>
+      <c r="E215" s="72"/>
+      <c r="F215" s="72"/>
+      <c r="G215" s="72"/>
+      <c r="H215" s="72"/>
+      <c r="I215" s="72"/>
+      <c r="J215" s="72"/>
+      <c r="K215" s="72"/>
+      <c r="L215" s="72"/>
+      <c r="M215" s="72"/>
+      <c r="N215" s="143"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C216" s="72"/>
+      <c r="D216" s="158">
+        <v>30.0</v>
+      </c>
+      <c r="E216" s="72"/>
+      <c r="F216" s="163">
+        <v>50.0</v>
+      </c>
+      <c r="G216" s="171"/>
+      <c r="H216" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I216" s="171"/>
+      <c r="J216" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="K216" s="72"/>
+      <c r="L216" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M216" s="72"/>
+      <c r="N216" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="118"/>
+      <c r="C217" s="72"/>
+      <c r="D217" s="72"/>
+      <c r="E217" s="72"/>
+      <c r="F217" s="72"/>
+      <c r="G217" s="72"/>
+      <c r="H217" s="72"/>
+      <c r="I217" s="72"/>
+      <c r="J217" s="72"/>
+      <c r="K217" s="72"/>
+      <c r="L217" s="72"/>
+      <c r="M217" s="72"/>
+      <c r="N217" s="143"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C218" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="D218" s="165"/>
+      <c r="E218" s="165"/>
+      <c r="F218" s="165"/>
+      <c r="G218" s="165"/>
+      <c r="H218" s="165"/>
+      <c r="I218" s="165"/>
+      <c r="J218" s="165"/>
+      <c r="K218" s="165"/>
+      <c r="L218" s="165"/>
+      <c r="M218" s="165"/>
+      <c r="N218" s="166"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="162"/>
+      <c r="C219" s="127"/>
+      <c r="D219" s="127"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="127"/>
+      <c r="L219" s="127"/>
+      <c r="M219" s="127"/>
+      <c r="N219" s="116"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="153"/>
+      <c r="D220" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E220" s="153"/>
+      <c r="F220" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G220" s="153"/>
+      <c r="H220" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I220" s="153"/>
+      <c r="J220" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K220" s="153"/>
+      <c r="L220" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M220" s="153"/>
+      <c r="N220" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="118"/>
+      <c r="C221" s="72"/>
+      <c r="D221" s="72"/>
+      <c r="E221" s="72"/>
+      <c r="F221" s="72"/>
+      <c r="G221" s="72"/>
+      <c r="H221" s="72"/>
+      <c r="I221" s="72"/>
+      <c r="J221" s="72"/>
+      <c r="K221" s="72"/>
+      <c r="L221" s="72"/>
+      <c r="M221" s="72"/>
+      <c r="N221" s="143"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C222" s="72"/>
+      <c r="D222" s="158">
+        <v>31.0</v>
+      </c>
+      <c r="E222" s="72"/>
+      <c r="F222" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="G222" s="171"/>
+      <c r="H222" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222" s="171"/>
+      <c r="J222" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K222" s="72"/>
+      <c r="L222" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M222" s="72"/>
+      <c r="N222" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="118"/>
+      <c r="C223" s="72"/>
+      <c r="D223" s="72"/>
+      <c r="E223" s="72"/>
+      <c r="F223" s="72"/>
+      <c r="G223" s="72"/>
+      <c r="H223" s="72"/>
+      <c r="I223" s="72"/>
+      <c r="J223" s="72"/>
+      <c r="K223" s="72"/>
+      <c r="L223" s="72"/>
+      <c r="M223" s="72"/>
+      <c r="N223" s="143"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C224" s="168" t="s">
+        <v>135</v>
+      </c>
+      <c r="D224" s="165"/>
+      <c r="E224" s="165"/>
+      <c r="F224" s="165"/>
+      <c r="G224" s="165"/>
+      <c r="H224" s="165"/>
+      <c r="I224" s="165"/>
+      <c r="J224" s="165"/>
+      <c r="K224" s="165"/>
+      <c r="L224" s="165"/>
+      <c r="M224" s="165"/>
+      <c r="N224" s="166"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="162"/>
+      <c r="C225" s="127"/>
+      <c r="D225" s="127"/>
+      <c r="E225" s="127"/>
+      <c r="F225" s="127"/>
+      <c r="G225" s="127"/>
+      <c r="H225" s="127"/>
+      <c r="I225" s="127"/>
+      <c r="J225" s="127"/>
+      <c r="K225" s="127"/>
+      <c r="L225" s="127"/>
+      <c r="M225" s="127"/>
+      <c r="N225" s="116"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="153"/>
+      <c r="D226" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E226" s="153"/>
+      <c r="F226" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G226" s="153"/>
+      <c r="H226" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I226" s="153"/>
+      <c r="J226" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K226" s="153"/>
+      <c r="L226" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M226" s="153"/>
+      <c r="N226" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="118"/>
+      <c r="C227" s="72"/>
+      <c r="D227" s="72"/>
+      <c r="E227" s="72"/>
+      <c r="F227" s="72"/>
+      <c r="G227" s="72"/>
+      <c r="H227" s="72"/>
+      <c r="I227" s="72"/>
+      <c r="J227" s="72"/>
+      <c r="K227" s="72"/>
+      <c r="L227" s="72"/>
+      <c r="M227" s="72"/>
+      <c r="N227" s="143"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C228" s="72"/>
+      <c r="D228" s="158">
+        <v>32.0</v>
+      </c>
+      <c r="E228" s="72"/>
+      <c r="F228" s="163">
+        <v>100.0</v>
+      </c>
+      <c r="G228" s="171"/>
+      <c r="H228" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I228" s="171"/>
+      <c r="J228" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K228" s="72"/>
+      <c r="L228" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M228" s="72"/>
+      <c r="N228" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="118"/>
+      <c r="C229" s="72"/>
+      <c r="D229" s="72"/>
+      <c r="E229" s="72"/>
+      <c r="F229" s="72"/>
+      <c r="G229" s="72"/>
+      <c r="H229" s="72"/>
+      <c r="I229" s="72"/>
+      <c r="J229" s="72"/>
+      <c r="K229" s="72"/>
+      <c r="L229" s="72"/>
+      <c r="M229" s="72"/>
+      <c r="N229" s="143"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C230" s="168" t="s">
+        <v>136</v>
+      </c>
+      <c r="D230" s="165"/>
+      <c r="E230" s="165"/>
+      <c r="F230" s="165"/>
+      <c r="G230" s="165"/>
+      <c r="H230" s="165"/>
+      <c r="I230" s="165"/>
+      <c r="J230" s="165"/>
+      <c r="K230" s="165"/>
+      <c r="L230" s="165"/>
+      <c r="M230" s="165"/>
+      <c r="N230" s="166"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="162"/>
+      <c r="C231" s="127"/>
+      <c r="D231" s="127"/>
+      <c r="E231" s="127"/>
+      <c r="F231" s="127"/>
+      <c r="G231" s="127"/>
+      <c r="H231" s="127"/>
+      <c r="I231" s="127"/>
+      <c r="J231" s="127"/>
+      <c r="K231" s="127"/>
+      <c r="L231" s="127"/>
+      <c r="M231" s="127"/>
+      <c r="N231" s="116"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="153"/>
+      <c r="D232" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E232" s="153"/>
+      <c r="F232" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G232" s="153"/>
+      <c r="H232" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I232" s="153"/>
+      <c r="J232" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K232" s="153"/>
+      <c r="L232" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M232" s="153"/>
+      <c r="N232" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="118"/>
+      <c r="C233" s="72"/>
+      <c r="D233" s="72"/>
+      <c r="E233" s="72"/>
+      <c r="F233" s="72"/>
+      <c r="G233" s="72"/>
+      <c r="H233" s="72"/>
+      <c r="I233" s="72"/>
+      <c r="J233" s="72"/>
+      <c r="K233" s="72"/>
+      <c r="L233" s="72"/>
+      <c r="M233" s="72"/>
+      <c r="N233" s="143"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C234" s="72"/>
+      <c r="D234" s="158">
+        <v>33.0</v>
+      </c>
+      <c r="E234" s="72"/>
+      <c r="F234" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="G234" s="171"/>
+      <c r="H234" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234" s="171"/>
+      <c r="J234" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K234" s="72"/>
+      <c r="L234" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M234" s="72"/>
+      <c r="N234" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="118"/>
+      <c r="C235" s="72"/>
+      <c r="D235" s="72"/>
+      <c r="E235" s="72"/>
+      <c r="F235" s="72"/>
+      <c r="G235" s="72"/>
+      <c r="H235" s="72"/>
+      <c r="I235" s="72"/>
+      <c r="J235" s="72"/>
+      <c r="K235" s="72"/>
+      <c r="L235" s="72"/>
+      <c r="M235" s="72"/>
+      <c r="N235" s="143"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C236" s="168" t="s">
+        <v>137</v>
+      </c>
+      <c r="D236" s="165"/>
+      <c r="E236" s="165"/>
+      <c r="F236" s="165"/>
+      <c r="G236" s="165"/>
+      <c r="H236" s="165"/>
+      <c r="I236" s="165"/>
+      <c r="J236" s="165"/>
+      <c r="K236" s="165"/>
+      <c r="L236" s="165"/>
+      <c r="M236" s="165"/>
+      <c r="N236" s="166"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="162"/>
+      <c r="C237" s="127"/>
+      <c r="D237" s="127"/>
+      <c r="E237" s="127"/>
+      <c r="F237" s="127"/>
+      <c r="G237" s="127"/>
+      <c r="H237" s="127"/>
+      <c r="I237" s="127"/>
+      <c r="J237" s="127"/>
+      <c r="K237" s="127"/>
+      <c r="L237" s="127"/>
+      <c r="M237" s="127"/>
+      <c r="N237" s="116"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="153"/>
+      <c r="D238" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E238" s="153"/>
+      <c r="F238" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G238" s="153"/>
+      <c r="H238" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I238" s="153"/>
+      <c r="J238" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K238" s="153"/>
+      <c r="L238" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M238" s="153"/>
+      <c r="N238" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="118"/>
+      <c r="C239" s="72"/>
+      <c r="D239" s="72"/>
+      <c r="E239" s="72"/>
+      <c r="F239" s="72"/>
+      <c r="G239" s="72"/>
+      <c r="H239" s="72"/>
+      <c r="I239" s="72"/>
+      <c r="J239" s="72"/>
+      <c r="K239" s="72"/>
+      <c r="L239" s="72"/>
+      <c r="M239" s="72"/>
+      <c r="N239" s="143"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C240" s="72"/>
+      <c r="D240" s="158">
+        <v>34.0</v>
+      </c>
+      <c r="E240" s="72"/>
+      <c r="F240" s="163">
+        <v>100.0</v>
+      </c>
+      <c r="G240" s="171"/>
+      <c r="H240" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I240" s="171"/>
+      <c r="J240" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K240" s="72"/>
+      <c r="L240" s="158">
+        <v>7.0</v>
+      </c>
+      <c r="M240" s="72"/>
+      <c r="N240" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="118"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="72"/>
+      <c r="F241" s="72"/>
+      <c r="G241" s="72"/>
+      <c r="H241" s="72"/>
+      <c r="I241" s="72"/>
+      <c r="J241" s="72"/>
+      <c r="K241" s="72"/>
+      <c r="L241" s="72"/>
+      <c r="M241" s="72"/>
+      <c r="N241" s="143"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C242" s="168" t="s">
+        <v>138</v>
+      </c>
+      <c r="D242" s="165"/>
+      <c r="E242" s="165"/>
+      <c r="F242" s="165"/>
+      <c r="G242" s="165"/>
+      <c r="H242" s="165"/>
+      <c r="I242" s="165"/>
+      <c r="J242" s="165"/>
+      <c r="K242" s="165"/>
+      <c r="L242" s="165"/>
+      <c r="M242" s="165"/>
+      <c r="N242" s="166"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="162"/>
+      <c r="C243" s="127"/>
+      <c r="D243" s="127"/>
+      <c r="E243" s="127"/>
+      <c r="F243" s="127"/>
+      <c r="G243" s="127"/>
+      <c r="H243" s="127"/>
+      <c r="I243" s="127"/>
+      <c r="J243" s="127"/>
+      <c r="K243" s="127"/>
+      <c r="L243" s="127"/>
+      <c r="M243" s="127"/>
+      <c r="N243" s="116"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="153"/>
+      <c r="D244" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E244" s="153"/>
+      <c r="F244" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G244" s="153"/>
+      <c r="H244" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I244" s="153"/>
+      <c r="J244" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K244" s="153"/>
+      <c r="L244" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M244" s="153"/>
+      <c r="N244" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="118"/>
+      <c r="C245" s="72"/>
+      <c r="D245" s="72"/>
+      <c r="E245" s="72"/>
+      <c r="F245" s="72"/>
+      <c r="G245" s="72"/>
+      <c r="H245" s="72"/>
+      <c r="I245" s="72"/>
+      <c r="J245" s="72"/>
+      <c r="K245" s="72"/>
+      <c r="L245" s="72"/>
+      <c r="M245" s="72"/>
+      <c r="N245" s="143"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C246" s="72"/>
+      <c r="D246" s="158">
+        <v>35.0</v>
+      </c>
+      <c r="E246" s="72"/>
+      <c r="F246" s="163">
+        <v>20.0</v>
+      </c>
+      <c r="G246" s="171"/>
+      <c r="H246" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246" s="171"/>
+      <c r="J246" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K246" s="72"/>
+      <c r="L246" s="158">
+        <v>9.0</v>
+      </c>
+      <c r="M246" s="72"/>
+      <c r="N246" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="118"/>
+      <c r="C247" s="72"/>
+      <c r="D247" s="72"/>
+      <c r="E247" s="72"/>
+      <c r="F247" s="72"/>
+      <c r="G247" s="72"/>
+      <c r="H247" s="72"/>
+      <c r="I247" s="72"/>
+      <c r="J247" s="72"/>
+      <c r="K247" s="72"/>
+      <c r="L247" s="72"/>
+      <c r="M247" s="72"/>
+      <c r="N247" s="143"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C248" s="168" t="s">
+        <v>139</v>
+      </c>
+      <c r="D248" s="165"/>
+      <c r="E248" s="165"/>
+      <c r="F248" s="165"/>
+      <c r="G248" s="165"/>
+      <c r="H248" s="165"/>
+      <c r="I248" s="165"/>
+      <c r="J248" s="165"/>
+      <c r="K248" s="165"/>
+      <c r="L248" s="165"/>
+      <c r="M248" s="165"/>
+      <c r="N248" s="166"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="162"/>
+      <c r="C249" s="127"/>
+      <c r="D249" s="127"/>
+      <c r="E249" s="127"/>
+      <c r="F249" s="127"/>
+      <c r="G249" s="127"/>
+      <c r="H249" s="127"/>
+      <c r="I249" s="127"/>
+      <c r="J249" s="127"/>
+      <c r="K249" s="127"/>
+      <c r="L249" s="127"/>
+      <c r="M249" s="127"/>
+      <c r="N249" s="116"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="153"/>
+      <c r="D250" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E250" s="153"/>
+      <c r="F250" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G250" s="153"/>
+      <c r="H250" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I250" s="153"/>
+      <c r="J250" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K250" s="153"/>
+      <c r="L250" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M250" s="153"/>
+      <c r="N250" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="118"/>
+      <c r="C251" s="72"/>
+      <c r="D251" s="72"/>
+      <c r="E251" s="72"/>
+      <c r="F251" s="72"/>
+      <c r="G251" s="72"/>
+      <c r="H251" s="72"/>
+      <c r="I251" s="72"/>
+      <c r="J251" s="72"/>
+      <c r="K251" s="72"/>
+      <c r="L251" s="72"/>
+      <c r="M251" s="72"/>
+      <c r="N251" s="143"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C252" s="72"/>
+      <c r="D252" s="158">
+        <v>36.0</v>
+      </c>
+      <c r="E252" s="72"/>
+      <c r="F252" s="163">
+        <v>40.0</v>
+      </c>
+      <c r="G252" s="171"/>
+      <c r="H252" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I252" s="171"/>
+      <c r="J252" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K252" s="72"/>
+      <c r="L252" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M252" s="72"/>
+      <c r="N252" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="118"/>
+      <c r="C253" s="72"/>
+      <c r="D253" s="72"/>
+      <c r="E253" s="72"/>
+      <c r="F253" s="72"/>
+      <c r="G253" s="72"/>
+      <c r="H253" s="72"/>
+      <c r="I253" s="72"/>
+      <c r="J253" s="72"/>
+      <c r="K253" s="72"/>
+      <c r="L253" s="72"/>
+      <c r="M253" s="72"/>
+      <c r="N253" s="143"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C254" s="168" t="s">
+        <v>140</v>
+      </c>
+      <c r="D254" s="165"/>
+      <c r="E254" s="165"/>
+      <c r="F254" s="165"/>
+      <c r="G254" s="165"/>
+      <c r="H254" s="165"/>
+      <c r="I254" s="165"/>
+      <c r="J254" s="165"/>
+      <c r="K254" s="165"/>
+      <c r="L254" s="165"/>
+      <c r="M254" s="165"/>
+      <c r="N254" s="166"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="162"/>
+      <c r="C255" s="127"/>
+      <c r="D255" s="127"/>
+      <c r="E255" s="127"/>
+      <c r="F255" s="127"/>
+      <c r="G255" s="127"/>
+      <c r="H255" s="127"/>
+      <c r="I255" s="127"/>
+      <c r="J255" s="127"/>
+      <c r="K255" s="127"/>
+      <c r="L255" s="127"/>
+      <c r="M255" s="127"/>
+      <c r="N255" s="116"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="153"/>
+      <c r="D256" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E256" s="153"/>
+      <c r="F256" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G256" s="153"/>
+      <c r="H256" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I256" s="153"/>
+      <c r="J256" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K256" s="153"/>
+      <c r="L256" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M256" s="153"/>
+      <c r="N256" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="118"/>
+      <c r="C257" s="72"/>
+      <c r="D257" s="72"/>
+      <c r="E257" s="72"/>
+      <c r="F257" s="72"/>
+      <c r="G257" s="72"/>
+      <c r="H257" s="72"/>
+      <c r="I257" s="72"/>
+      <c r="J257" s="72"/>
+      <c r="K257" s="72"/>
+      <c r="L257" s="72"/>
+      <c r="M257" s="72"/>
+      <c r="N257" s="143"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C258" s="72"/>
+      <c r="D258" s="158">
+        <v>37.0</v>
+      </c>
+      <c r="E258" s="72"/>
+      <c r="F258" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="G258" s="171"/>
+      <c r="H258" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I258" s="171"/>
+      <c r="J258" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K258" s="72"/>
+      <c r="L258" s="158">
+        <v>9.0</v>
+      </c>
+      <c r="M258" s="72"/>
+      <c r="N258" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="118"/>
+      <c r="C259" s="72"/>
+      <c r="D259" s="72"/>
+      <c r="E259" s="72"/>
+      <c r="F259" s="72"/>
+      <c r="G259" s="72"/>
+      <c r="H259" s="72"/>
+      <c r="I259" s="72"/>
+      <c r="J259" s="72"/>
+      <c r="K259" s="72"/>
+      <c r="L259" s="72"/>
+      <c r="M259" s="72"/>
+      <c r="N259" s="143"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C260" s="168" t="s">
+        <v>141</v>
+      </c>
+      <c r="D260" s="165"/>
+      <c r="E260" s="165"/>
+      <c r="F260" s="165"/>
+      <c r="G260" s="165"/>
+      <c r="H260" s="165"/>
+      <c r="I260" s="165"/>
+      <c r="J260" s="165"/>
+      <c r="K260" s="165"/>
+      <c r="L260" s="165"/>
+      <c r="M260" s="165"/>
+      <c r="N260" s="166"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="162"/>
+      <c r="C261" s="127"/>
+      <c r="D261" s="127"/>
+      <c r="E261" s="127"/>
+      <c r="F261" s="127"/>
+      <c r="G261" s="127"/>
+      <c r="H261" s="127"/>
+      <c r="I261" s="127"/>
+      <c r="J261" s="127"/>
+      <c r="K261" s="127"/>
+      <c r="L261" s="127"/>
+      <c r="M261" s="127"/>
+      <c r="N261" s="116"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="153"/>
+      <c r="D262" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E262" s="153"/>
+      <c r="F262" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G262" s="153"/>
+      <c r="H262" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I262" s="153"/>
+      <c r="J262" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K262" s="153"/>
+      <c r="L262" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M262" s="153"/>
+      <c r="N262" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="118"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="E263" s="72"/>
+      <c r="F263" s="72"/>
+      <c r="G263" s="72"/>
+      <c r="H263" s="72"/>
+      <c r="I263" s="72"/>
+      <c r="J263" s="72"/>
+      <c r="K263" s="72"/>
+      <c r="L263" s="72"/>
+      <c r="M263" s="72"/>
+      <c r="N263" s="143"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C264" s="72"/>
+      <c r="D264" s="158">
+        <v>38.0</v>
+      </c>
+      <c r="E264" s="72"/>
+      <c r="F264" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="G264" s="171"/>
+      <c r="H264" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I264" s="171"/>
+      <c r="J264" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K264" s="72"/>
+      <c r="L264" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M264" s="72"/>
+      <c r="N264" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="118"/>
+      <c r="C265" s="72"/>
+      <c r="D265" s="72"/>
+      <c r="E265" s="72"/>
+      <c r="F265" s="72"/>
+      <c r="G265" s="72"/>
+      <c r="H265" s="72"/>
+      <c r="I265" s="72"/>
+      <c r="J265" s="72"/>
+      <c r="K265" s="72"/>
+      <c r="L265" s="72"/>
+      <c r="M265" s="72"/>
+      <c r="N265" s="143"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C266" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D266" s="165"/>
+      <c r="E266" s="165"/>
+      <c r="F266" s="165"/>
+      <c r="G266" s="165"/>
+      <c r="H266" s="165"/>
+      <c r="I266" s="165"/>
+      <c r="J266" s="165"/>
+      <c r="K266" s="165"/>
+      <c r="L266" s="165"/>
+      <c r="M266" s="165"/>
+      <c r="N266" s="166"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="162"/>
+      <c r="C267" s="127"/>
+      <c r="D267" s="127"/>
+      <c r="E267" s="127"/>
+      <c r="F267" s="127"/>
+      <c r="G267" s="127"/>
+      <c r="H267" s="127"/>
+      <c r="I267" s="127"/>
+      <c r="J267" s="127"/>
+      <c r="K267" s="127"/>
+      <c r="L267" s="127"/>
+      <c r="M267" s="127"/>
+      <c r="N267" s="116"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="153"/>
+      <c r="D268" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E268" s="153"/>
+      <c r="F268" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G268" s="153"/>
+      <c r="H268" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I268" s="153"/>
+      <c r="J268" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K268" s="153"/>
+      <c r="L268" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M268" s="153"/>
+      <c r="N268" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="118"/>
+      <c r="C269" s="72"/>
+      <c r="D269" s="73"/>
+      <c r="E269" s="72"/>
+      <c r="F269" s="72"/>
+      <c r="G269" s="72"/>
+      <c r="H269" s="72"/>
+      <c r="I269" s="72"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="72"/>
+      <c r="L269" s="72"/>
+      <c r="M269" s="72"/>
+      <c r="N269" s="143"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C270" s="72"/>
+      <c r="D270" s="158">
+        <v>39.0</v>
+      </c>
+      <c r="E270" s="72"/>
+      <c r="F270" s="163">
+        <v>20.0</v>
+      </c>
+      <c r="G270" s="171"/>
+      <c r="H270" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I270" s="171"/>
+      <c r="J270" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K270" s="72"/>
+      <c r="L270" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M270" s="72"/>
+      <c r="N270" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="118"/>
+      <c r="C271" s="72"/>
+      <c r="D271" s="72"/>
+      <c r="E271" s="72"/>
+      <c r="F271" s="72"/>
+      <c r="G271" s="72"/>
+      <c r="H271" s="72"/>
+      <c r="I271" s="72"/>
+      <c r="J271" s="72"/>
+      <c r="K271" s="72"/>
+      <c r="L271" s="72"/>
+      <c r="M271" s="72"/>
+      <c r="N271" s="143"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C272" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="D272" s="165"/>
+      <c r="E272" s="165"/>
+      <c r="F272" s="165"/>
+      <c r="G272" s="165"/>
+      <c r="H272" s="165"/>
+      <c r="I272" s="165"/>
+      <c r="J272" s="165"/>
+      <c r="K272" s="165"/>
+      <c r="L272" s="165"/>
+      <c r="M272" s="165"/>
+      <c r="N272" s="166"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="162"/>
+      <c r="C273" s="127"/>
+      <c r="D273" s="127"/>
+      <c r="E273" s="127"/>
+      <c r="F273" s="127"/>
+      <c r="G273" s="127"/>
+      <c r="H273" s="127"/>
+      <c r="I273" s="127"/>
+      <c r="J273" s="127"/>
+      <c r="K273" s="127"/>
+      <c r="L273" s="127"/>
+      <c r="M273" s="127"/>
+      <c r="N273" s="116"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="153"/>
+      <c r="D274" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E274" s="153"/>
+      <c r="F274" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G274" s="153"/>
+      <c r="H274" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I274" s="153"/>
+      <c r="J274" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K274" s="153"/>
+      <c r="L274" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M274" s="153"/>
+      <c r="N274" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="118"/>
+      <c r="C275" s="72"/>
+      <c r="D275" s="72"/>
+      <c r="E275" s="72"/>
+      <c r="F275" s="72"/>
+      <c r="G275" s="72"/>
+      <c r="H275" s="72"/>
+      <c r="I275" s="72"/>
+      <c r="J275" s="72"/>
+      <c r="K275" s="72"/>
+      <c r="L275" s="72"/>
+      <c r="M275" s="72"/>
+      <c r="N275" s="143"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="157">
+        <v>45662.0</v>
+      </c>
+      <c r="C276" s="72"/>
+      <c r="D276" s="158">
+        <v>40.0</v>
+      </c>
+      <c r="E276" s="72"/>
+      <c r="F276" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G276" s="171"/>
+      <c r="H276" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I276" s="171"/>
+      <c r="J276" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K276" s="72"/>
+      <c r="L276" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M276" s="72"/>
+      <c r="N276" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="118"/>
+      <c r="C277" s="72"/>
+      <c r="D277" s="72"/>
+      <c r="E277" s="72"/>
+      <c r="F277" s="72"/>
+      <c r="G277" s="72"/>
+      <c r="H277" s="72"/>
+      <c r="I277" s="72"/>
+      <c r="J277" s="72"/>
+      <c r="K277" s="72"/>
+      <c r="L277" s="72"/>
+      <c r="M277" s="72"/>
+      <c r="N277" s="143"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C278" s="168" t="s">
+        <v>144</v>
+      </c>
+      <c r="D278" s="165"/>
+      <c r="E278" s="165"/>
+      <c r="F278" s="165"/>
+      <c r="G278" s="165"/>
+      <c r="H278" s="165"/>
+      <c r="I278" s="165"/>
+      <c r="J278" s="165"/>
+      <c r="K278" s="165"/>
+      <c r="L278" s="165"/>
+      <c r="M278" s="165"/>
+      <c r="N278" s="166"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="162"/>
+      <c r="C279" s="127"/>
+      <c r="D279" s="127"/>
+      <c r="E279" s="127"/>
+      <c r="F279" s="127"/>
+      <c r="G279" s="127"/>
+      <c r="H279" s="127"/>
+      <c r="I279" s="127"/>
+      <c r="J279" s="127"/>
+      <c r="K279" s="127"/>
+      <c r="L279" s="127"/>
+      <c r="M279" s="127"/>
+      <c r="N279" s="116"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="153"/>
+      <c r="D280" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E280" s="153"/>
+      <c r="F280" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G280" s="153"/>
+      <c r="H280" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I280" s="153"/>
+      <c r="J280" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K280" s="153"/>
+      <c r="L280" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M280" s="153"/>
+      <c r="N280" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="118"/>
+      <c r="C281" s="72"/>
+      <c r="D281" s="72"/>
+      <c r="E281" s="72"/>
+      <c r="F281" s="72"/>
+      <c r="G281" s="72"/>
+      <c r="H281" s="72"/>
+      <c r="I281" s="72"/>
+      <c r="J281" s="72"/>
+      <c r="K281" s="72"/>
+      <c r="L281" s="72"/>
+      <c r="M281" s="72"/>
+      <c r="N281" s="143"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="157">
+        <v>45668.0</v>
+      </c>
+      <c r="C282" s="72"/>
+      <c r="D282" s="158">
+        <v>41.0</v>
+      </c>
+      <c r="E282" s="72"/>
+      <c r="F282" s="158">
+        <v>60.0</v>
+      </c>
+      <c r="G282" s="72"/>
+      <c r="H282" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I282" s="72"/>
+      <c r="J282" s="159" t="s">
+        <v>109</v>
+      </c>
+      <c r="K282" s="72"/>
+      <c r="L282" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M282" s="72"/>
+      <c r="N282" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="118"/>
+      <c r="C283" s="72"/>
+      <c r="D283" s="72"/>
+      <c r="E283" s="72"/>
+      <c r="F283" s="72"/>
+      <c r="G283" s="72"/>
+      <c r="H283" s="72"/>
+      <c r="I283" s="72"/>
+      <c r="J283" s="72"/>
+      <c r="K283" s="72"/>
+      <c r="L283" s="72"/>
+      <c r="M283" s="72"/>
+      <c r="N283" s="143"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C284" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="D284" s="79"/>
+      <c r="E284" s="79"/>
+      <c r="F284" s="79"/>
+      <c r="G284" s="79"/>
+      <c r="H284" s="79"/>
+      <c r="I284" s="79"/>
+      <c r="J284" s="79"/>
+      <c r="K284" s="79"/>
+      <c r="L284" s="79"/>
+      <c r="M284" s="79"/>
+      <c r="N284" s="114"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="162"/>
+      <c r="C285" s="127"/>
+      <c r="D285" s="127"/>
+      <c r="E285" s="127"/>
+      <c r="F285" s="127"/>
+      <c r="G285" s="127"/>
+      <c r="H285" s="127"/>
+      <c r="I285" s="127"/>
+      <c r="J285" s="127"/>
+      <c r="K285" s="127"/>
+      <c r="L285" s="127"/>
+      <c r="M285" s="127"/>
+      <c r="N285" s="116"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="153"/>
+      <c r="D286" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E286" s="153"/>
+      <c r="F286" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G286" s="153"/>
+      <c r="H286" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I286" s="153"/>
+      <c r="J286" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K286" s="153"/>
+      <c r="L286" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M286" s="153"/>
+      <c r="N286" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="118"/>
+      <c r="C287" s="72"/>
+      <c r="D287" s="72"/>
+      <c r="E287" s="72"/>
+      <c r="F287" s="72"/>
+      <c r="G287" s="72"/>
+      <c r="H287" s="72"/>
+      <c r="I287" s="72"/>
+      <c r="J287" s="72"/>
+      <c r="K287" s="72"/>
+      <c r="L287" s="72"/>
+      <c r="M287" s="72"/>
+      <c r="N287" s="143"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="157">
+        <v>45668.0</v>
+      </c>
+      <c r="C288" s="72"/>
+      <c r="D288" s="158">
+        <v>42.0</v>
+      </c>
+      <c r="E288" s="72"/>
+      <c r="F288" s="158">
+        <v>60.0</v>
+      </c>
+      <c r="G288" s="72"/>
+      <c r="H288" s="159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I288" s="72"/>
+      <c r="J288" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="K288" s="72"/>
+      <c r="L288" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M288" s="72"/>
+      <c r="N288" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="118"/>
+      <c r="C289" s="72"/>
+      <c r="D289" s="72"/>
+      <c r="E289" s="72"/>
+      <c r="F289" s="72"/>
+      <c r="G289" s="72"/>
+      <c r="H289" s="72"/>
+      <c r="I289" s="72"/>
+      <c r="J289" s="72"/>
+      <c r="K289" s="72"/>
+      <c r="L289" s="72"/>
+      <c r="M289" s="72"/>
+      <c r="N289" s="143"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C290" s="161" t="s">
+        <v>146</v>
+      </c>
+      <c r="D290" s="79"/>
+      <c r="E290" s="79"/>
+      <c r="F290" s="79"/>
+      <c r="G290" s="79"/>
+      <c r="H290" s="79"/>
+      <c r="I290" s="79"/>
+      <c r="J290" s="79"/>
+      <c r="K290" s="79"/>
+      <c r="L290" s="79"/>
+      <c r="M290" s="79"/>
+      <c r="N290" s="114"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="162"/>
+      <c r="C291" s="127"/>
+      <c r="D291" s="127"/>
+      <c r="E291" s="127"/>
+      <c r="F291" s="127"/>
+      <c r="G291" s="127"/>
+      <c r="H291" s="127"/>
+      <c r="I291" s="127"/>
+      <c r="J291" s="127"/>
+      <c r="K291" s="127"/>
+      <c r="L291" s="127"/>
+      <c r="M291" s="127"/>
+      <c r="N291" s="116"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="153"/>
+      <c r="D292" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E292" s="153"/>
+      <c r="F292" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G292" s="153"/>
+      <c r="H292" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I292" s="153"/>
+      <c r="J292" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K292" s="153"/>
+      <c r="L292" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M292" s="153"/>
+      <c r="N292" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" s="118"/>
+      <c r="C293" s="72"/>
+      <c r="D293" s="72"/>
+      <c r="E293" s="72"/>
+      <c r="F293" s="72"/>
+      <c r="G293" s="72"/>
+      <c r="H293" s="72"/>
+      <c r="I293" s="72"/>
+      <c r="J293" s="72"/>
+      <c r="K293" s="72"/>
+      <c r="L293" s="72"/>
+      <c r="M293" s="72"/>
+      <c r="N293" s="143"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="157">
+        <v>45668.0</v>
+      </c>
+      <c r="C294" s="72"/>
+      <c r="D294" s="158">
+        <v>43.0</v>
+      </c>
+      <c r="E294" s="72"/>
+      <c r="F294" s="163">
+        <v>50.0</v>
+      </c>
+      <c r="G294" s="167"/>
+      <c r="H294" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I294" s="167"/>
+      <c r="J294" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="K294" s="72"/>
+      <c r="L294" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M294" s="72"/>
+      <c r="N294" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" s="118"/>
+      <c r="C295" s="72"/>
+      <c r="D295" s="72"/>
+      <c r="E295" s="72"/>
+      <c r="F295" s="72"/>
+      <c r="G295" s="72"/>
+      <c r="H295" s="72"/>
+      <c r="I295" s="72"/>
+      <c r="J295" s="72"/>
+      <c r="K295" s="72"/>
+      <c r="L295" s="72"/>
+      <c r="M295" s="72"/>
+      <c r="N295" s="143"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C296" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="D296" s="165"/>
+      <c r="E296" s="165"/>
+      <c r="F296" s="165"/>
+      <c r="G296" s="165"/>
+      <c r="H296" s="165"/>
+      <c r="I296" s="165"/>
+      <c r="J296" s="165"/>
+      <c r="K296" s="165"/>
+      <c r="L296" s="165"/>
+      <c r="M296" s="165"/>
+      <c r="N296" s="166"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="162"/>
+      <c r="C297" s="127"/>
+      <c r="D297" s="127"/>
+      <c r="E297" s="127"/>
+      <c r="F297" s="127"/>
+      <c r="G297" s="127"/>
+      <c r="H297" s="127"/>
+      <c r="I297" s="127"/>
+      <c r="J297" s="127"/>
+      <c r="K297" s="127"/>
+      <c r="L297" s="127"/>
+      <c r="M297" s="127"/>
+      <c r="N297" s="116"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="153"/>
+      <c r="D298" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E298" s="153"/>
+      <c r="F298" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G298" s="153"/>
+      <c r="H298" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I298" s="153"/>
+      <c r="J298" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K298" s="153"/>
+      <c r="L298" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M298" s="153"/>
+      <c r="N298" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" s="118"/>
+      <c r="C299" s="72"/>
+      <c r="D299" s="72"/>
+      <c r="E299" s="72"/>
+      <c r="F299" s="72"/>
+      <c r="G299" s="72"/>
+      <c r="H299" s="72"/>
+      <c r="I299" s="72"/>
+      <c r="J299" s="72"/>
+      <c r="K299" s="72"/>
+      <c r="L299" s="72"/>
+      <c r="M299" s="72"/>
+      <c r="N299" s="143"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="157">
+        <v>45668.0</v>
+      </c>
+      <c r="C300" s="72"/>
+      <c r="D300" s="158">
+        <v>44.0</v>
+      </c>
+      <c r="E300" s="72"/>
+      <c r="F300" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G300" s="167"/>
+      <c r="H300" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I300" s="167"/>
+      <c r="J300" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K300" s="72"/>
+      <c r="L300" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M300" s="72"/>
+      <c r="N300" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" s="118"/>
+      <c r="C301" s="72"/>
+      <c r="D301" s="72"/>
+      <c r="E301" s="72"/>
+      <c r="F301" s="72"/>
+      <c r="G301" s="72"/>
+      <c r="H301" s="72"/>
+      <c r="I301" s="72"/>
+      <c r="J301" s="72"/>
+      <c r="K301" s="72"/>
+      <c r="L301" s="72"/>
+      <c r="M301" s="72"/>
+      <c r="N301" s="143"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C302" s="168" t="s">
+        <v>148</v>
+      </c>
+      <c r="D302" s="165"/>
+      <c r="E302" s="165"/>
+      <c r="F302" s="165"/>
+      <c r="G302" s="165"/>
+      <c r="H302" s="165"/>
+      <c r="I302" s="165"/>
+      <c r="J302" s="165"/>
+      <c r="K302" s="165"/>
+      <c r="L302" s="165"/>
+      <c r="M302" s="165"/>
+      <c r="N302" s="166"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="162"/>
+      <c r="C303" s="127"/>
+      <c r="D303" s="127"/>
+      <c r="E303" s="127"/>
+      <c r="F303" s="127"/>
+      <c r="G303" s="127"/>
+      <c r="H303" s="127"/>
+      <c r="I303" s="127"/>
+      <c r="J303" s="127"/>
+      <c r="K303" s="127"/>
+      <c r="L303" s="127"/>
+      <c r="M303" s="127"/>
+      <c r="N303" s="116"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="153"/>
+      <c r="D304" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E304" s="153"/>
+      <c r="F304" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G304" s="153"/>
+      <c r="H304" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I304" s="153"/>
+      <c r="J304" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K304" s="153"/>
+      <c r="L304" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M304" s="153"/>
+      <c r="N304" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" s="118"/>
+      <c r="C305" s="72"/>
+      <c r="D305" s="72"/>
+      <c r="E305" s="72"/>
+      <c r="F305" s="72"/>
+      <c r="G305" s="72"/>
+      <c r="H305" s="72"/>
+      <c r="I305" s="72"/>
+      <c r="J305" s="72"/>
+      <c r="K305" s="72"/>
+      <c r="L305" s="72"/>
+      <c r="M305" s="72"/>
+      <c r="N305" s="143"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="157">
+        <v>45668.0</v>
+      </c>
+      <c r="C306" s="72"/>
+      <c r="D306" s="158">
+        <v>45.0</v>
+      </c>
+      <c r="E306" s="72"/>
+      <c r="F306" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="G306" s="167"/>
+      <c r="H306" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I306" s="167"/>
+      <c r="J306" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K306" s="72"/>
+      <c r="L306" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M306" s="72"/>
+      <c r="N306" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" s="118"/>
+      <c r="C307" s="72"/>
+      <c r="D307" s="72"/>
+      <c r="E307" s="72"/>
+      <c r="F307" s="72"/>
+      <c r="G307" s="72"/>
+      <c r="H307" s="72"/>
+      <c r="I307" s="72"/>
+      <c r="J307" s="72"/>
+      <c r="K307" s="72"/>
+      <c r="L307" s="72"/>
+      <c r="M307" s="72"/>
+      <c r="N307" s="143"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C308" s="168" t="s">
+        <v>149</v>
+      </c>
+      <c r="D308" s="165"/>
+      <c r="E308" s="165"/>
+      <c r="F308" s="165"/>
+      <c r="G308" s="165"/>
+      <c r="H308" s="165"/>
+      <c r="I308" s="165"/>
+      <c r="J308" s="165"/>
+      <c r="K308" s="165"/>
+      <c r="L308" s="165"/>
+      <c r="M308" s="165"/>
+      <c r="N308" s="166"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="162"/>
+      <c r="C309" s="127"/>
+      <c r="D309" s="127"/>
+      <c r="E309" s="127"/>
+      <c r="F309" s="127"/>
+      <c r="G309" s="127"/>
+      <c r="H309" s="127"/>
+      <c r="I309" s="127"/>
+      <c r="J309" s="127"/>
+      <c r="K309" s="127"/>
+      <c r="L309" s="127"/>
+      <c r="M309" s="127"/>
+      <c r="N309" s="116"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="153"/>
+      <c r="D310" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E310" s="153"/>
+      <c r="F310" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G310" s="153"/>
+      <c r="H310" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I310" s="153"/>
+      <c r="J310" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K310" s="153"/>
+      <c r="L310" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M310" s="153"/>
+      <c r="N310" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" s="118"/>
+      <c r="C311" s="72"/>
+      <c r="D311" s="72"/>
+      <c r="E311" s="72"/>
+      <c r="F311" s="72"/>
+      <c r="G311" s="72"/>
+      <c r="H311" s="72"/>
+      <c r="I311" s="72"/>
+      <c r="J311" s="72"/>
+      <c r="K311" s="72"/>
+      <c r="L311" s="72"/>
+      <c r="M311" s="72"/>
+      <c r="N311" s="143"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="157">
+        <v>45668.0</v>
+      </c>
+      <c r="C312" s="72"/>
+      <c r="D312" s="158">
+        <v>46.0</v>
+      </c>
+      <c r="E312" s="72"/>
+      <c r="F312" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G312" s="167"/>
+      <c r="H312" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I312" s="167"/>
+      <c r="J312" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K312" s="72"/>
+      <c r="L312" s="158">
+        <v>30.0</v>
+      </c>
+      <c r="M312" s="72"/>
+      <c r="N312" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" s="118"/>
+      <c r="C313" s="72"/>
+      <c r="D313" s="72"/>
+      <c r="E313" s="72"/>
+      <c r="F313" s="72"/>
+      <c r="G313" s="72"/>
+      <c r="H313" s="72"/>
+      <c r="I313" s="72"/>
+      <c r="J313" s="72"/>
+      <c r="K313" s="72"/>
+      <c r="L313" s="72"/>
+      <c r="M313" s="72"/>
+      <c r="N313" s="143"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C314" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="D314" s="165"/>
+      <c r="E314" s="165"/>
+      <c r="F314" s="165"/>
+      <c r="G314" s="165"/>
+      <c r="H314" s="165"/>
+      <c r="I314" s="165"/>
+      <c r="J314" s="165"/>
+      <c r="K314" s="165"/>
+      <c r="L314" s="165"/>
+      <c r="M314" s="165"/>
+      <c r="N314" s="166"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="162"/>
+      <c r="C315" s="127"/>
+      <c r="D315" s="127"/>
+      <c r="E315" s="127"/>
+      <c r="F315" s="127"/>
+      <c r="G315" s="127"/>
+      <c r="H315" s="127"/>
+      <c r="I315" s="127"/>
+      <c r="J315" s="127"/>
+      <c r="K315" s="127"/>
+      <c r="L315" s="127"/>
+      <c r="M315" s="127"/>
+      <c r="N315" s="116"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="153"/>
+      <c r="D316" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E316" s="153"/>
+      <c r="F316" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G316" s="153"/>
+      <c r="H316" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I316" s="153"/>
+      <c r="J316" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K316" s="153"/>
+      <c r="L316" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M316" s="153"/>
+      <c r="N316" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" s="118"/>
+      <c r="C317" s="72"/>
+      <c r="D317" s="72"/>
+      <c r="E317" s="72"/>
+      <c r="F317" s="72"/>
+      <c r="G317" s="72"/>
+      <c r="H317" s="72"/>
+      <c r="I317" s="72"/>
+      <c r="J317" s="72"/>
+      <c r="K317" s="72"/>
+      <c r="L317" s="72"/>
+      <c r="M317" s="72"/>
+      <c r="N317" s="143"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C318" s="72"/>
+      <c r="D318" s="158">
+        <v>47.0</v>
+      </c>
+      <c r="E318" s="72"/>
+      <c r="F318" s="158">
+        <v>80.0</v>
+      </c>
+      <c r="G318" s="72"/>
+      <c r="H318" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I318" s="72"/>
+      <c r="J318" s="159" t="s">
+        <v>109</v>
+      </c>
+      <c r="K318" s="72"/>
+      <c r="L318" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M318" s="72"/>
+      <c r="N318" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" s="118"/>
+      <c r="C319" s="72"/>
+      <c r="D319" s="72"/>
+      <c r="E319" s="72"/>
+      <c r="F319" s="72"/>
+      <c r="G319" s="72"/>
+      <c r="H319" s="72"/>
+      <c r="I319" s="72"/>
+      <c r="J319" s="72"/>
+      <c r="K319" s="72"/>
+      <c r="L319" s="72"/>
+      <c r="M319" s="72"/>
+      <c r="N319" s="143"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C320" s="161" t="s">
+        <v>151</v>
+      </c>
+      <c r="D320" s="79"/>
+      <c r="E320" s="79"/>
+      <c r="F320" s="79"/>
+      <c r="G320" s="79"/>
+      <c r="H320" s="79"/>
+      <c r="I320" s="79"/>
+      <c r="J320" s="79"/>
+      <c r="K320" s="79"/>
+      <c r="L320" s="79"/>
+      <c r="M320" s="79"/>
+      <c r="N320" s="114"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="162"/>
+      <c r="C321" s="127"/>
+      <c r="D321" s="127"/>
+      <c r="E321" s="127"/>
+      <c r="F321" s="127"/>
+      <c r="G321" s="127"/>
+      <c r="H321" s="127"/>
+      <c r="I321" s="127"/>
+      <c r="J321" s="127"/>
+      <c r="K321" s="127"/>
+      <c r="L321" s="127"/>
+      <c r="M321" s="127"/>
+      <c r="N321" s="116"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="153"/>
+      <c r="D322" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E322" s="153"/>
+      <c r="F322" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G322" s="153"/>
+      <c r="H322" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I322" s="153"/>
+      <c r="J322" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K322" s="153"/>
+      <c r="L322" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M322" s="153"/>
+      <c r="N322" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" s="118"/>
+      <c r="C323" s="72"/>
+      <c r="D323" s="72"/>
+      <c r="E323" s="72"/>
+      <c r="F323" s="72"/>
+      <c r="G323" s="72"/>
+      <c r="H323" s="72"/>
+      <c r="I323" s="72"/>
+      <c r="J323" s="72"/>
+      <c r="K323" s="72"/>
+      <c r="L323" s="72"/>
+      <c r="M323" s="72"/>
+      <c r="N323" s="143"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C324" s="72"/>
+      <c r="D324" s="158">
+        <v>48.0</v>
+      </c>
+      <c r="E324" s="72"/>
+      <c r="F324" s="163">
+        <v>50.0</v>
+      </c>
+      <c r="G324" s="171"/>
+      <c r="H324" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I324" s="173"/>
+      <c r="J324" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="K324" s="72"/>
+      <c r="L324" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M324" s="72"/>
+      <c r="N324" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" s="118"/>
+      <c r="C325" s="72"/>
+      <c r="D325" s="72"/>
+      <c r="E325" s="72"/>
+      <c r="F325" s="72"/>
+      <c r="G325" s="72"/>
+      <c r="H325" s="72"/>
+      <c r="I325" s="72"/>
+      <c r="J325" s="72"/>
+      <c r="K325" s="72"/>
+      <c r="L325" s="72"/>
+      <c r="M325" s="72"/>
+      <c r="N325" s="143"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C326" s="172" t="s">
+        <v>152</v>
+      </c>
+      <c r="D326" s="165"/>
+      <c r="E326" s="165"/>
+      <c r="F326" s="165"/>
+      <c r="G326" s="165"/>
+      <c r="H326" s="165"/>
+      <c r="I326" s="165"/>
+      <c r="J326" s="165"/>
+      <c r="K326" s="165"/>
+      <c r="L326" s="165"/>
+      <c r="M326" s="165"/>
+      <c r="N326" s="166"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="162"/>
+      <c r="C327" s="127"/>
+      <c r="D327" s="127"/>
+      <c r="E327" s="127"/>
+      <c r="F327" s="127"/>
+      <c r="G327" s="127"/>
+      <c r="H327" s="127"/>
+      <c r="I327" s="127"/>
+      <c r="J327" s="127"/>
+      <c r="K327" s="127"/>
+      <c r="L327" s="127"/>
+      <c r="M327" s="127"/>
+      <c r="N327" s="116"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="153"/>
+      <c r="D328" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E328" s="153"/>
+      <c r="F328" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G328" s="153"/>
+      <c r="H328" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I328" s="153"/>
+      <c r="J328" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K328" s="153"/>
+      <c r="L328" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M328" s="153"/>
+      <c r="N328" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" s="118"/>
+      <c r="C329" s="72"/>
+      <c r="D329" s="72"/>
+      <c r="E329" s="72"/>
+      <c r="F329" s="72"/>
+      <c r="G329" s="72"/>
+      <c r="H329" s="72"/>
+      <c r="I329" s="72"/>
+      <c r="J329" s="72"/>
+      <c r="K329" s="72"/>
+      <c r="L329" s="72"/>
+      <c r="M329" s="72"/>
+      <c r="N329" s="143"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C330" s="72"/>
+      <c r="D330" s="158">
+        <v>49.0</v>
+      </c>
+      <c r="E330" s="72"/>
+      <c r="F330" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G330" s="171"/>
+      <c r="H330" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I330" s="173"/>
+      <c r="J330" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K330" s="72"/>
+      <c r="L330" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M330" s="72"/>
+      <c r="N330" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" s="118"/>
+      <c r="C331" s="72"/>
+      <c r="D331" s="72"/>
+      <c r="E331" s="72"/>
+      <c r="F331" s="72"/>
+      <c r="G331" s="72"/>
+      <c r="H331" s="72"/>
+      <c r="I331" s="72"/>
+      <c r="J331" s="72"/>
+      <c r="K331" s="72"/>
+      <c r="L331" s="72"/>
+      <c r="M331" s="72"/>
+      <c r="N331" s="143"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C332" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D332" s="165"/>
+      <c r="E332" s="165"/>
+      <c r="F332" s="165"/>
+      <c r="G332" s="165"/>
+      <c r="H332" s="165"/>
+      <c r="I332" s="165"/>
+      <c r="J332" s="165"/>
+      <c r="K332" s="165"/>
+      <c r="L332" s="165"/>
+      <c r="M332" s="165"/>
+      <c r="N332" s="166"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="162"/>
+      <c r="C333" s="127"/>
+      <c r="D333" s="127"/>
+      <c r="E333" s="127"/>
+      <c r="F333" s="127"/>
+      <c r="G333" s="127"/>
+      <c r="H333" s="127"/>
+      <c r="I333" s="127"/>
+      <c r="J333" s="127"/>
+      <c r="K333" s="127"/>
+      <c r="L333" s="127"/>
+      <c r="M333" s="127"/>
+      <c r="N333" s="116"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="153"/>
+      <c r="D334" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E334" s="153"/>
+      <c r="F334" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G334" s="153"/>
+      <c r="H334" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I334" s="153"/>
+      <c r="J334" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K334" s="153"/>
+      <c r="L334" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M334" s="153"/>
+      <c r="N334" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" s="118"/>
+      <c r="C335" s="72"/>
+      <c r="D335" s="72"/>
+      <c r="E335" s="72"/>
+      <c r="F335" s="72"/>
+      <c r="G335" s="72"/>
+      <c r="H335" s="72"/>
+      <c r="I335" s="72"/>
+      <c r="J335" s="72"/>
+      <c r="K335" s="72"/>
+      <c r="L335" s="72"/>
+      <c r="M335" s="72"/>
+      <c r="N335" s="143"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C336" s="72"/>
+      <c r="D336" s="158">
+        <v>50.0</v>
+      </c>
+      <c r="E336" s="72"/>
+      <c r="F336" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G336" s="171"/>
+      <c r="H336" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I336" s="173"/>
+      <c r="J336" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K336" s="174"/>
+      <c r="L336" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M336" s="72"/>
+      <c r="N336" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" s="118"/>
+      <c r="C337" s="72"/>
+      <c r="D337" s="72"/>
+      <c r="E337" s="72"/>
+      <c r="F337" s="72"/>
+      <c r="G337" s="72"/>
+      <c r="H337" s="72"/>
+      <c r="I337" s="72"/>
+      <c r="J337" s="72"/>
+      <c r="K337" s="72"/>
+      <c r="L337" s="72"/>
+      <c r="M337" s="72"/>
+      <c r="N337" s="143"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C338" s="168" t="s">
+        <v>154</v>
+      </c>
+      <c r="D338" s="165"/>
+      <c r="E338" s="165"/>
+      <c r="F338" s="165"/>
+      <c r="G338" s="165"/>
+      <c r="H338" s="165"/>
+      <c r="I338" s="165"/>
+      <c r="J338" s="165"/>
+      <c r="K338" s="165"/>
+      <c r="L338" s="165"/>
+      <c r="M338" s="165"/>
+      <c r="N338" s="166"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="162"/>
+      <c r="C339" s="127"/>
+      <c r="D339" s="127"/>
+      <c r="E339" s="127"/>
+      <c r="F339" s="127"/>
+      <c r="G339" s="127"/>
+      <c r="H339" s="127"/>
+      <c r="I339" s="127"/>
+      <c r="J339" s="127"/>
+      <c r="K339" s="127"/>
+      <c r="L339" s="127"/>
+      <c r="M339" s="127"/>
+      <c r="N339" s="116"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="153"/>
+      <c r="D340" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E340" s="153"/>
+      <c r="F340" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G340" s="153"/>
+      <c r="H340" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I340" s="153"/>
+      <c r="J340" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K340" s="153"/>
+      <c r="L340" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M340" s="153"/>
+      <c r="N340" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" s="118"/>
+      <c r="C341" s="72"/>
+      <c r="D341" s="72"/>
+      <c r="E341" s="72"/>
+      <c r="F341" s="72"/>
+      <c r="G341" s="72"/>
+      <c r="H341" s="72"/>
+      <c r="I341" s="72"/>
+      <c r="J341" s="72"/>
+      <c r="K341" s="72"/>
+      <c r="L341" s="72"/>
+      <c r="M341" s="72"/>
+      <c r="N341" s="143"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C342" s="72"/>
+      <c r="D342" s="158">
+        <v>51.0</v>
+      </c>
+      <c r="E342" s="72"/>
+      <c r="F342" s="163">
+        <v>100.0</v>
+      </c>
+      <c r="G342" s="171"/>
+      <c r="H342" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I342" s="173"/>
+      <c r="J342" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K342" s="72"/>
+      <c r="L342" s="158">
+        <v>30.0</v>
+      </c>
+      <c r="M342" s="72"/>
+      <c r="N342" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" s="118"/>
+      <c r="C343" s="72"/>
+      <c r="D343" s="72"/>
+      <c r="E343" s="72"/>
+      <c r="F343" s="72"/>
+      <c r="G343" s="72"/>
+      <c r="H343" s="72"/>
+      <c r="I343" s="72"/>
+      <c r="J343" s="72"/>
+      <c r="K343" s="72"/>
+      <c r="L343" s="72"/>
+      <c r="M343" s="72"/>
+      <c r="N343" s="143"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C344" s="168" t="s">
+        <v>155</v>
+      </c>
+      <c r="D344" s="165"/>
+      <c r="E344" s="165"/>
+      <c r="F344" s="165"/>
+      <c r="G344" s="165"/>
+      <c r="H344" s="165"/>
+      <c r="I344" s="165"/>
+      <c r="J344" s="165"/>
+      <c r="K344" s="165"/>
+      <c r="L344" s="165"/>
+      <c r="M344" s="165"/>
+      <c r="N344" s="166"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="162"/>
+      <c r="C345" s="127"/>
+      <c r="D345" s="127"/>
+      <c r="E345" s="127"/>
+      <c r="F345" s="127"/>
+      <c r="G345" s="127"/>
+      <c r="H345" s="127"/>
+      <c r="I345" s="127"/>
+      <c r="J345" s="127"/>
+      <c r="K345" s="127"/>
+      <c r="L345" s="127"/>
+      <c r="M345" s="127"/>
+      <c r="N345" s="116"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="153"/>
+      <c r="D346" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E346" s="153"/>
+      <c r="F346" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G346" s="153"/>
+      <c r="H346" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I346" s="153"/>
+      <c r="J346" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K346" s="153"/>
+      <c r="L346" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M346" s="153"/>
+      <c r="N346" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" s="118"/>
+      <c r="C347" s="72"/>
+      <c r="D347" s="72"/>
+      <c r="E347" s="72"/>
+      <c r="F347" s="72"/>
+      <c r="G347" s="72"/>
+      <c r="H347" s="72"/>
+      <c r="I347" s="72"/>
+      <c r="J347" s="72"/>
+      <c r="K347" s="72"/>
+      <c r="L347" s="72"/>
+      <c r="M347" s="72"/>
+      <c r="N347" s="143"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C348" s="72"/>
+      <c r="D348" s="158">
+        <v>52.0</v>
+      </c>
+      <c r="E348" s="72"/>
+      <c r="F348" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G348" s="171"/>
+      <c r="H348" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I348" s="173"/>
+      <c r="J348" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K348" s="72"/>
+      <c r="L348" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M348" s="72"/>
+      <c r="N348" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" s="118"/>
+      <c r="C349" s="72"/>
+      <c r="D349" s="72"/>
+      <c r="E349" s="72"/>
+      <c r="F349" s="72"/>
+      <c r="G349" s="72"/>
+      <c r="H349" s="72"/>
+      <c r="I349" s="72"/>
+      <c r="J349" s="72"/>
+      <c r="K349" s="72"/>
+      <c r="L349" s="72"/>
+      <c r="M349" s="72"/>
+      <c r="N349" s="143"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C350" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="D350" s="165"/>
+      <c r="E350" s="165"/>
+      <c r="F350" s="165"/>
+      <c r="G350" s="165"/>
+      <c r="H350" s="165"/>
+      <c r="I350" s="165"/>
+      <c r="J350" s="165"/>
+      <c r="K350" s="165"/>
+      <c r="L350" s="165"/>
+      <c r="M350" s="165"/>
+      <c r="N350" s="166"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="162"/>
+      <c r="C351" s="127"/>
+      <c r="D351" s="127"/>
+      <c r="E351" s="127"/>
+      <c r="F351" s="127"/>
+      <c r="G351" s="127"/>
+      <c r="H351" s="127"/>
+      <c r="I351" s="127"/>
+      <c r="J351" s="127"/>
+      <c r="K351" s="127"/>
+      <c r="L351" s="127"/>
+      <c r="M351" s="127"/>
+      <c r="N351" s="116"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="153"/>
+      <c r="D352" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E352" s="153"/>
+      <c r="F352" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G352" s="153"/>
+      <c r="H352" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I352" s="153"/>
+      <c r="J352" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K352" s="153"/>
+      <c r="L352" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M352" s="153"/>
+      <c r="N352" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" s="118"/>
+      <c r="C353" s="72"/>
+      <c r="D353" s="72"/>
+      <c r="E353" s="72"/>
+      <c r="F353" s="72"/>
+      <c r="G353" s="72"/>
+      <c r="H353" s="72"/>
+      <c r="I353" s="72"/>
+      <c r="J353" s="72"/>
+      <c r="K353" s="72"/>
+      <c r="L353" s="72"/>
+      <c r="M353" s="72"/>
+      <c r="N353" s="143"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C354" s="72"/>
+      <c r="D354" s="158">
+        <v>53.0</v>
+      </c>
+      <c r="E354" s="72"/>
+      <c r="F354" s="163">
+        <v>80.0</v>
+      </c>
+      <c r="G354" s="171"/>
+      <c r="H354" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I354" s="173"/>
+      <c r="J354" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K354" s="72"/>
+      <c r="L354" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M354" s="72"/>
+      <c r="N354" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" s="118"/>
+      <c r="C355" s="72"/>
+      <c r="D355" s="72"/>
+      <c r="E355" s="72"/>
+      <c r="F355" s="72"/>
+      <c r="G355" s="72"/>
+      <c r="H355" s="72"/>
+      <c r="I355" s="72"/>
+      <c r="J355" s="72"/>
+      <c r="K355" s="72"/>
+      <c r="L355" s="72"/>
+      <c r="M355" s="72"/>
+      <c r="N355" s="143"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C356" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D356" s="165"/>
+      <c r="E356" s="165"/>
+      <c r="F356" s="165"/>
+      <c r="G356" s="165"/>
+      <c r="H356" s="165"/>
+      <c r="I356" s="165"/>
+      <c r="J356" s="165"/>
+      <c r="K356" s="165"/>
+      <c r="L356" s="165"/>
+      <c r="M356" s="165"/>
+      <c r="N356" s="166"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="162"/>
+      <c r="C357" s="127"/>
+      <c r="D357" s="127"/>
+      <c r="E357" s="127"/>
+      <c r="F357" s="127"/>
+      <c r="G357" s="127"/>
+      <c r="H357" s="127"/>
+      <c r="I357" s="127"/>
+      <c r="J357" s="127"/>
+      <c r="K357" s="127"/>
+      <c r="L357" s="127"/>
+      <c r="M357" s="127"/>
+      <c r="N357" s="116"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="153"/>
+      <c r="D358" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E358" s="153"/>
+      <c r="F358" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G358" s="153"/>
+      <c r="H358" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I358" s="153"/>
+      <c r="J358" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K358" s="153"/>
+      <c r="L358" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M358" s="153"/>
+      <c r="N358" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" s="118"/>
+      <c r="C359" s="72"/>
+      <c r="D359" s="72"/>
+      <c r="E359" s="72"/>
+      <c r="F359" s="72"/>
+      <c r="G359" s="72"/>
+      <c r="H359" s="72"/>
+      <c r="I359" s="72"/>
+      <c r="J359" s="72"/>
+      <c r="K359" s="72"/>
+      <c r="L359" s="72"/>
+      <c r="M359" s="72"/>
+      <c r="N359" s="143"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C360" s="72"/>
+      <c r="D360" s="158">
+        <v>54.0</v>
+      </c>
+      <c r="E360" s="72"/>
+      <c r="F360" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G360" s="171"/>
+      <c r="H360" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I360" s="173"/>
+      <c r="J360" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K360" s="72"/>
+      <c r="L360" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M360" s="72"/>
+      <c r="N360" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" s="118"/>
+      <c r="C361" s="72"/>
+      <c r="D361" s="72"/>
+      <c r="E361" s="72"/>
+      <c r="F361" s="72"/>
+      <c r="G361" s="72"/>
+      <c r="H361" s="72"/>
+      <c r="I361" s="72"/>
+      <c r="J361" s="72"/>
+      <c r="K361" s="72"/>
+      <c r="L361" s="72"/>
+      <c r="M361" s="72"/>
+      <c r="N361" s="143"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C362" s="168" t="s">
+        <v>158</v>
+      </c>
+      <c r="D362" s="165"/>
+      <c r="E362" s="165"/>
+      <c r="F362" s="165"/>
+      <c r="G362" s="165"/>
+      <c r="H362" s="165"/>
+      <c r="I362" s="165"/>
+      <c r="J362" s="165"/>
+      <c r="K362" s="165"/>
+      <c r="L362" s="165"/>
+      <c r="M362" s="165"/>
+      <c r="N362" s="166"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="162"/>
+      <c r="C363" s="127"/>
+      <c r="D363" s="127"/>
+      <c r="E363" s="127"/>
+      <c r="F363" s="127"/>
+      <c r="G363" s="127"/>
+      <c r="H363" s="127"/>
+      <c r="I363" s="127"/>
+      <c r="J363" s="127"/>
+      <c r="K363" s="127"/>
+      <c r="L363" s="127"/>
+      <c r="M363" s="127"/>
+      <c r="N363" s="116"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="153"/>
+      <c r="D364" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E364" s="153"/>
+      <c r="F364" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G364" s="153"/>
+      <c r="H364" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I364" s="153"/>
+      <c r="J364" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K364" s="153"/>
+      <c r="L364" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M364" s="153"/>
+      <c r="N364" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" s="118"/>
+      <c r="C365" s="72"/>
+      <c r="D365" s="72"/>
+      <c r="E365" s="72"/>
+      <c r="F365" s="72"/>
+      <c r="G365" s="72"/>
+      <c r="H365" s="72"/>
+      <c r="I365" s="72"/>
+      <c r="J365" s="72"/>
+      <c r="K365" s="72"/>
+      <c r="L365" s="72"/>
+      <c r="M365" s="72"/>
+      <c r="N365" s="143"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C366" s="72"/>
+      <c r="D366" s="158">
+        <v>55.0</v>
+      </c>
+      <c r="E366" s="72"/>
+      <c r="F366" s="163">
+        <v>90.0</v>
+      </c>
+      <c r="G366" s="171"/>
+      <c r="H366" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I366" s="173"/>
+      <c r="J366" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K366" s="72"/>
+      <c r="L366" s="158">
+        <v>20.0</v>
+      </c>
+      <c r="M366" s="72"/>
+      <c r="N366" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" s="118"/>
+      <c r="C367" s="72"/>
+      <c r="D367" s="72"/>
+      <c r="E367" s="72"/>
+      <c r="F367" s="72"/>
+      <c r="G367" s="72"/>
+      <c r="H367" s="72"/>
+      <c r="I367" s="72"/>
+      <c r="J367" s="72"/>
+      <c r="K367" s="72"/>
+      <c r="L367" s="72"/>
+      <c r="M367" s="72"/>
+      <c r="N367" s="143"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C368" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="D368" s="165"/>
+      <c r="E368" s="165"/>
+      <c r="F368" s="165"/>
+      <c r="G368" s="165"/>
+      <c r="H368" s="165"/>
+      <c r="I368" s="165"/>
+      <c r="J368" s="165"/>
+      <c r="K368" s="165"/>
+      <c r="L368" s="165"/>
+      <c r="M368" s="165"/>
+      <c r="N368" s="166"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="162"/>
+      <c r="C369" s="127"/>
+      <c r="D369" s="127"/>
+      <c r="E369" s="127"/>
+      <c r="F369" s="127"/>
+      <c r="G369" s="127"/>
+      <c r="H369" s="127"/>
+      <c r="I369" s="127"/>
+      <c r="J369" s="127"/>
+      <c r="K369" s="127"/>
+      <c r="L369" s="127"/>
+      <c r="M369" s="127"/>
+      <c r="N369" s="116"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="153"/>
+      <c r="D370" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E370" s="153"/>
+      <c r="F370" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G370" s="153"/>
+      <c r="H370" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I370" s="153"/>
+      <c r="J370" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K370" s="153"/>
+      <c r="L370" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M370" s="153"/>
+      <c r="N370" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" s="118"/>
+      <c r="C371" s="72"/>
+      <c r="D371" s="72"/>
+      <c r="E371" s="72"/>
+      <c r="F371" s="72"/>
+      <c r="G371" s="72"/>
+      <c r="H371" s="72"/>
+      <c r="I371" s="72"/>
+      <c r="J371" s="72"/>
+      <c r="K371" s="72"/>
+      <c r="L371" s="72"/>
+      <c r="M371" s="72"/>
+      <c r="N371" s="143"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="157">
+        <v>45669.0</v>
+      </c>
+      <c r="C372" s="72"/>
+      <c r="D372" s="158">
+        <v>56.0</v>
+      </c>
+      <c r="E372" s="72"/>
+      <c r="F372" s="163">
+        <v>20.0</v>
+      </c>
+      <c r="G372" s="171"/>
+      <c r="H372" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I372" s="173"/>
+      <c r="J372" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K372" s="174"/>
+      <c r="L372" s="158">
+        <v>12.0</v>
+      </c>
+      <c r="M372" s="72"/>
+      <c r="N372" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" s="118"/>
+      <c r="C373" s="72"/>
+      <c r="D373" s="72"/>
+      <c r="E373" s="72"/>
+      <c r="F373" s="72"/>
+      <c r="G373" s="72"/>
+      <c r="H373" s="72"/>
+      <c r="I373" s="72"/>
+      <c r="J373" s="72"/>
+      <c r="K373" s="72"/>
+      <c r="L373" s="72"/>
+      <c r="M373" s="72"/>
+      <c r="N373" s="143"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C374" s="168" t="s">
+        <v>160</v>
+      </c>
+      <c r="D374" s="165"/>
+      <c r="E374" s="165"/>
+      <c r="F374" s="165"/>
+      <c r="G374" s="165"/>
+      <c r="H374" s="165"/>
+      <c r="I374" s="165"/>
+      <c r="J374" s="165"/>
+      <c r="K374" s="165"/>
+      <c r="L374" s="165"/>
+      <c r="M374" s="165"/>
+      <c r="N374" s="166"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="162"/>
+      <c r="C375" s="127"/>
+      <c r="D375" s="127"/>
+      <c r="E375" s="127"/>
+      <c r="F375" s="127"/>
+      <c r="G375" s="127"/>
+      <c r="H375" s="127"/>
+      <c r="I375" s="127"/>
+      <c r="J375" s="127"/>
+      <c r="K375" s="127"/>
+      <c r="L375" s="127"/>
+      <c r="M375" s="127"/>
+      <c r="N375" s="116"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" s="153"/>
+      <c r="D376" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E376" s="153"/>
+      <c r="F376" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G376" s="153"/>
+      <c r="H376" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I376" s="153"/>
+      <c r="J376" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K376" s="153"/>
+      <c r="L376" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M376" s="153"/>
+      <c r="N376" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" s="118"/>
+      <c r="C377" s="72"/>
+      <c r="D377" s="72"/>
+      <c r="E377" s="72"/>
+      <c r="F377" s="72"/>
+      <c r="G377" s="72"/>
+      <c r="H377" s="72"/>
+      <c r="I377" s="72"/>
+      <c r="J377" s="72"/>
+      <c r="K377" s="72"/>
+      <c r="L377" s="72"/>
+      <c r="M377" s="72"/>
+      <c r="N377" s="143"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C378" s="72"/>
+      <c r="D378" s="158">
+        <v>57.0</v>
+      </c>
+      <c r="E378" s="72"/>
+      <c r="F378" s="158">
+        <v>100.0</v>
+      </c>
+      <c r="G378" s="72"/>
+      <c r="H378" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I378" s="72"/>
+      <c r="J378" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="K378" s="72"/>
+      <c r="L378" s="158">
+        <v>8.0</v>
+      </c>
+      <c r="M378" s="72"/>
+      <c r="N378" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" s="118"/>
+      <c r="C379" s="72"/>
+      <c r="D379" s="72"/>
+      <c r="E379" s="72"/>
+      <c r="F379" s="72"/>
+      <c r="G379" s="72"/>
+      <c r="H379" s="72"/>
+      <c r="I379" s="72"/>
+      <c r="J379" s="72"/>
+      <c r="K379" s="72"/>
+      <c r="L379" s="72"/>
+      <c r="M379" s="72"/>
+      <c r="N379" s="143"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C380" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="D380" s="79"/>
+      <c r="E380" s="79"/>
+      <c r="F380" s="79"/>
+      <c r="G380" s="79"/>
+      <c r="H380" s="79"/>
+      <c r="I380" s="79"/>
+      <c r="J380" s="79"/>
+      <c r="K380" s="79"/>
+      <c r="L380" s="79"/>
+      <c r="M380" s="79"/>
+      <c r="N380" s="114"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="162"/>
+      <c r="C381" s="127"/>
+      <c r="D381" s="127"/>
+      <c r="E381" s="127"/>
+      <c r="F381" s="127"/>
+      <c r="G381" s="127"/>
+      <c r="H381" s="127"/>
+      <c r="I381" s="127"/>
+      <c r="J381" s="127"/>
+      <c r="K381" s="127"/>
+      <c r="L381" s="127"/>
+      <c r="M381" s="127"/>
+      <c r="N381" s="116"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" s="153"/>
+      <c r="D382" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E382" s="153"/>
+      <c r="F382" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G382" s="153"/>
+      <c r="H382" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I382" s="153"/>
+      <c r="J382" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K382" s="153"/>
+      <c r="L382" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M382" s="153"/>
+      <c r="N382" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" s="118"/>
+      <c r="C383" s="72"/>
+      <c r="D383" s="72"/>
+      <c r="E383" s="72"/>
+      <c r="F383" s="72"/>
+      <c r="G383" s="72"/>
+      <c r="H383" s="72"/>
+      <c r="I383" s="72"/>
+      <c r="J383" s="72"/>
+      <c r="K383" s="72"/>
+      <c r="L383" s="72"/>
+      <c r="M383" s="72"/>
+      <c r="N383" s="143"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C384" s="72"/>
+      <c r="D384" s="158">
+        <v>58.0</v>
+      </c>
+      <c r="E384" s="72"/>
+      <c r="F384" s="163">
+        <v>50.0</v>
+      </c>
+      <c r="G384" s="167"/>
+      <c r="H384" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I384" s="167"/>
+      <c r="J384" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="K384" s="72"/>
+      <c r="L384" s="158">
+        <v>7.0</v>
+      </c>
+      <c r="M384" s="72"/>
+      <c r="N384" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" s="118"/>
+      <c r="C385" s="72"/>
+      <c r="D385" s="72"/>
+      <c r="E385" s="72"/>
+      <c r="F385" s="72"/>
+      <c r="G385" s="72"/>
+      <c r="H385" s="72"/>
+      <c r="I385" s="72"/>
+      <c r="J385" s="72"/>
+      <c r="K385" s="72"/>
+      <c r="L385" s="72"/>
+      <c r="M385" s="72"/>
+      <c r="N385" s="143"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C386" s="172" t="s">
+        <v>162</v>
+      </c>
+      <c r="D386" s="165"/>
+      <c r="E386" s="165"/>
+      <c r="F386" s="165"/>
+      <c r="G386" s="165"/>
+      <c r="H386" s="165"/>
+      <c r="I386" s="165"/>
+      <c r="J386" s="165"/>
+      <c r="K386" s="165"/>
+      <c r="L386" s="165"/>
+      <c r="M386" s="165"/>
+      <c r="N386" s="166"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="162"/>
+      <c r="C387" s="127"/>
+      <c r="D387" s="127"/>
+      <c r="E387" s="127"/>
+      <c r="F387" s="127"/>
+      <c r="G387" s="127"/>
+      <c r="H387" s="127"/>
+      <c r="I387" s="127"/>
+      <c r="J387" s="127"/>
+      <c r="K387" s="127"/>
+      <c r="L387" s="127"/>
+      <c r="M387" s="127"/>
+      <c r="N387" s="116"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" s="153"/>
+      <c r="D388" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E388" s="153"/>
+      <c r="F388" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G388" s="153"/>
+      <c r="H388" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I388" s="153"/>
+      <c r="J388" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K388" s="153"/>
+      <c r="L388" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M388" s="153"/>
+      <c r="N388" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" s="118"/>
+      <c r="C389" s="72"/>
+      <c r="D389" s="72"/>
+      <c r="E389" s="72"/>
+      <c r="F389" s="72"/>
+      <c r="G389" s="72"/>
+      <c r="H389" s="72"/>
+      <c r="I389" s="72"/>
+      <c r="J389" s="72"/>
+      <c r="K389" s="72"/>
+      <c r="L389" s="72"/>
+      <c r="M389" s="72"/>
+      <c r="N389" s="143"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C390" s="72"/>
+      <c r="D390" s="158">
+        <v>59.0</v>
+      </c>
+      <c r="E390" s="72"/>
+      <c r="F390" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G390" s="167"/>
+      <c r="H390" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I390" s="167"/>
+      <c r="J390" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K390" s="72"/>
+      <c r="L390" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M390" s="72"/>
+      <c r="N390" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" s="118"/>
+      <c r="C391" s="72"/>
+      <c r="D391" s="72"/>
+      <c r="E391" s="72"/>
+      <c r="F391" s="72"/>
+      <c r="G391" s="72"/>
+      <c r="H391" s="72"/>
+      <c r="I391" s="72"/>
+      <c r="J391" s="72"/>
+      <c r="K391" s="72"/>
+      <c r="L391" s="72"/>
+      <c r="M391" s="72"/>
+      <c r="N391" s="143"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C392" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="D392" s="165"/>
+      <c r="E392" s="165"/>
+      <c r="F392" s="165"/>
+      <c r="G392" s="165"/>
+      <c r="H392" s="165"/>
+      <c r="I392" s="165"/>
+      <c r="J392" s="165"/>
+      <c r="K392" s="165"/>
+      <c r="L392" s="165"/>
+      <c r="M392" s="165"/>
+      <c r="N392" s="166"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="162"/>
+      <c r="C393" s="127"/>
+      <c r="D393" s="127"/>
+      <c r="E393" s="127"/>
+      <c r="F393" s="127"/>
+      <c r="G393" s="127"/>
+      <c r="H393" s="127"/>
+      <c r="I393" s="127"/>
+      <c r="J393" s="127"/>
+      <c r="K393" s="127"/>
+      <c r="L393" s="127"/>
+      <c r="M393" s="127"/>
+      <c r="N393" s="116"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" s="153"/>
+      <c r="D394" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E394" s="153"/>
+      <c r="F394" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G394" s="153"/>
+      <c r="H394" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I394" s="153"/>
+      <c r="J394" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K394" s="153"/>
+      <c r="L394" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M394" s="153"/>
+      <c r="N394" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" s="118"/>
+      <c r="C395" s="72"/>
+      <c r="D395" s="72"/>
+      <c r="E395" s="72"/>
+      <c r="F395" s="72"/>
+      <c r="G395" s="72"/>
+      <c r="H395" s="72"/>
+      <c r="I395" s="72"/>
+      <c r="J395" s="72"/>
+      <c r="K395" s="72"/>
+      <c r="L395" s="72"/>
+      <c r="M395" s="72"/>
+      <c r="N395" s="143"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C396" s="72"/>
+      <c r="D396" s="158">
+        <v>60.0</v>
+      </c>
+      <c r="E396" s="72"/>
+      <c r="F396" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G396" s="167"/>
+      <c r="H396" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I396" s="167"/>
+      <c r="J396" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K396" s="72"/>
+      <c r="L396" s="158">
+        <v>15.0</v>
+      </c>
+      <c r="M396" s="72"/>
+      <c r="N396" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" s="118"/>
+      <c r="C397" s="72"/>
+      <c r="D397" s="72"/>
+      <c r="E397" s="72"/>
+      <c r="F397" s="72"/>
+      <c r="G397" s="72"/>
+      <c r="H397" s="72"/>
+      <c r="I397" s="72"/>
+      <c r="J397" s="72"/>
+      <c r="K397" s="72"/>
+      <c r="L397" s="72"/>
+      <c r="M397" s="72"/>
+      <c r="N397" s="143"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C398" s="168" t="s">
+        <v>164</v>
+      </c>
+      <c r="D398" s="165"/>
+      <c r="E398" s="165"/>
+      <c r="F398" s="165"/>
+      <c r="G398" s="165"/>
+      <c r="H398" s="165"/>
+      <c r="I398" s="165"/>
+      <c r="J398" s="165"/>
+      <c r="K398" s="165"/>
+      <c r="L398" s="165"/>
+      <c r="M398" s="165"/>
+      <c r="N398" s="166"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="162"/>
+      <c r="C399" s="127"/>
+      <c r="D399" s="127"/>
+      <c r="E399" s="127"/>
+      <c r="F399" s="127"/>
+      <c r="G399" s="127"/>
+      <c r="H399" s="127"/>
+      <c r="I399" s="127"/>
+      <c r="J399" s="127"/>
+      <c r="K399" s="127"/>
+      <c r="L399" s="127"/>
+      <c r="M399" s="127"/>
+      <c r="N399" s="116"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" s="153"/>
+      <c r="D400" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E400" s="153"/>
+      <c r="F400" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G400" s="153"/>
+      <c r="H400" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I400" s="153"/>
+      <c r="J400" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K400" s="153"/>
+      <c r="L400" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M400" s="153"/>
+      <c r="N400" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" s="118"/>
+      <c r="C401" s="72"/>
+      <c r="D401" s="72"/>
+      <c r="E401" s="72"/>
+      <c r="F401" s="72"/>
+      <c r="G401" s="72"/>
+      <c r="H401" s="72"/>
+      <c r="I401" s="72"/>
+      <c r="J401" s="72"/>
+      <c r="K401" s="72"/>
+      <c r="L401" s="72"/>
+      <c r="M401" s="72"/>
+      <c r="N401" s="143"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C402" s="72"/>
+      <c r="D402" s="158">
+        <v>61.0</v>
+      </c>
+      <c r="E402" s="72"/>
+      <c r="F402" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G402" s="167"/>
+      <c r="H402" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I402" s="167"/>
+      <c r="J402" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K402" s="72"/>
+      <c r="L402" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M402" s="72"/>
+      <c r="N402" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" s="118"/>
+      <c r="C403" s="72"/>
+      <c r="D403" s="72"/>
+      <c r="E403" s="72"/>
+      <c r="F403" s="72"/>
+      <c r="G403" s="72"/>
+      <c r="H403" s="72"/>
+      <c r="I403" s="72"/>
+      <c r="J403" s="72"/>
+      <c r="K403" s="72"/>
+      <c r="L403" s="72"/>
+      <c r="M403" s="72"/>
+      <c r="N403" s="143"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C404" s="168" t="s">
+        <v>165</v>
+      </c>
+      <c r="D404" s="165"/>
+      <c r="E404" s="165"/>
+      <c r="F404" s="165"/>
+      <c r="G404" s="165"/>
+      <c r="H404" s="165"/>
+      <c r="I404" s="165"/>
+      <c r="J404" s="165"/>
+      <c r="K404" s="165"/>
+      <c r="L404" s="165"/>
+      <c r="M404" s="165"/>
+      <c r="N404" s="166"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="162"/>
+      <c r="C405" s="127"/>
+      <c r="D405" s="127"/>
+      <c r="E405" s="127"/>
+      <c r="F405" s="127"/>
+      <c r="G405" s="127"/>
+      <c r="H405" s="127"/>
+      <c r="I405" s="127"/>
+      <c r="J405" s="127"/>
+      <c r="K405" s="127"/>
+      <c r="L405" s="127"/>
+      <c r="M405" s="127"/>
+      <c r="N405" s="116"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" s="153"/>
+      <c r="D406" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E406" s="153"/>
+      <c r="F406" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G406" s="153"/>
+      <c r="H406" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I406" s="153"/>
+      <c r="J406" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K406" s="153"/>
+      <c r="L406" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M406" s="153"/>
+      <c r="N406" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" s="118"/>
+      <c r="C407" s="72"/>
+      <c r="D407" s="72"/>
+      <c r="E407" s="72"/>
+      <c r="F407" s="72"/>
+      <c r="G407" s="72"/>
+      <c r="H407" s="72"/>
+      <c r="I407" s="72"/>
+      <c r="J407" s="72"/>
+      <c r="K407" s="72"/>
+      <c r="L407" s="72"/>
+      <c r="M407" s="72"/>
+      <c r="N407" s="143"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C408" s="72"/>
+      <c r="D408" s="158">
+        <v>62.0</v>
+      </c>
+      <c r="E408" s="72"/>
+      <c r="F408" s="163">
+        <v>20.0</v>
+      </c>
+      <c r="G408" s="167"/>
+      <c r="H408" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I408" s="167"/>
+      <c r="J408" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K408" s="72"/>
+      <c r="L408" s="158">
+        <v>4.0</v>
+      </c>
+      <c r="M408" s="72"/>
+      <c r="N408" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" s="118"/>
+      <c r="C409" s="72"/>
+      <c r="D409" s="72"/>
+      <c r="E409" s="72"/>
+      <c r="F409" s="72"/>
+      <c r="G409" s="72"/>
+      <c r="H409" s="72"/>
+      <c r="I409" s="72"/>
+      <c r="J409" s="72"/>
+      <c r="K409" s="72"/>
+      <c r="L409" s="72"/>
+      <c r="M409" s="72"/>
+      <c r="N409" s="143"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C410" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="D410" s="165"/>
+      <c r="E410" s="165"/>
+      <c r="F410" s="165"/>
+      <c r="G410" s="165"/>
+      <c r="H410" s="165"/>
+      <c r="I410" s="165"/>
+      <c r="J410" s="165"/>
+      <c r="K410" s="165"/>
+      <c r="L410" s="165"/>
+      <c r="M410" s="165"/>
+      <c r="N410" s="166"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="162"/>
+      <c r="C411" s="127"/>
+      <c r="D411" s="127"/>
+      <c r="E411" s="127"/>
+      <c r="F411" s="127"/>
+      <c r="G411" s="127"/>
+      <c r="H411" s="127"/>
+      <c r="I411" s="127"/>
+      <c r="J411" s="127"/>
+      <c r="K411" s="127"/>
+      <c r="L411" s="127"/>
+      <c r="M411" s="127"/>
+      <c r="N411" s="116"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" s="153"/>
+      <c r="D412" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E412" s="153"/>
+      <c r="F412" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G412" s="153"/>
+      <c r="H412" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I412" s="153"/>
+      <c r="J412" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K412" s="153"/>
+      <c r="L412" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M412" s="153"/>
+      <c r="N412" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" s="118"/>
+      <c r="C413" s="72"/>
+      <c r="D413" s="72"/>
+      <c r="E413" s="72"/>
+      <c r="F413" s="72"/>
+      <c r="G413" s="72"/>
+      <c r="H413" s="72"/>
+      <c r="I413" s="72"/>
+      <c r="J413" s="72"/>
+      <c r="K413" s="72"/>
+      <c r="L413" s="72"/>
+      <c r="M413" s="72"/>
+      <c r="N413" s="143"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C414" s="72"/>
+      <c r="D414" s="158">
+        <v>63.0</v>
+      </c>
+      <c r="E414" s="72"/>
+      <c r="F414" s="163">
+        <v>90.0</v>
+      </c>
+      <c r="G414" s="167"/>
+      <c r="H414" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I414" s="167"/>
+      <c r="J414" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K414" s="72"/>
+      <c r="L414" s="158">
+        <v>9.0</v>
+      </c>
+      <c r="M414" s="72"/>
+      <c r="N414" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="118"/>
+      <c r="C415" s="72"/>
+      <c r="D415" s="72"/>
+      <c r="E415" s="72"/>
+      <c r="F415" s="72"/>
+      <c r="G415" s="72"/>
+      <c r="H415" s="72"/>
+      <c r="I415" s="72"/>
+      <c r="J415" s="72"/>
+      <c r="K415" s="72"/>
+      <c r="L415" s="72"/>
+      <c r="M415" s="72"/>
+      <c r="N415" s="143"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C416" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="D416" s="165"/>
+      <c r="E416" s="165"/>
+      <c r="F416" s="165"/>
+      <c r="G416" s="165"/>
+      <c r="H416" s="165"/>
+      <c r="I416" s="165"/>
+      <c r="J416" s="165"/>
+      <c r="K416" s="165"/>
+      <c r="L416" s="165"/>
+      <c r="M416" s="165"/>
+      <c r="N416" s="166"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="162"/>
+      <c r="C417" s="127"/>
+      <c r="D417" s="127"/>
+      <c r="E417" s="127"/>
+      <c r="F417" s="127"/>
+      <c r="G417" s="127"/>
+      <c r="H417" s="127"/>
+      <c r="I417" s="127"/>
+      <c r="J417" s="127"/>
+      <c r="K417" s="127"/>
+      <c r="L417" s="127"/>
+      <c r="M417" s="127"/>
+      <c r="N417" s="116"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" s="153"/>
+      <c r="D418" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E418" s="153"/>
+      <c r="F418" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G418" s="153"/>
+      <c r="H418" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I418" s="153"/>
+      <c r="J418" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K418" s="153"/>
+      <c r="L418" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M418" s="153"/>
+      <c r="N418" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" s="118"/>
+      <c r="C419" s="72"/>
+      <c r="D419" s="72"/>
+      <c r="E419" s="72"/>
+      <c r="F419" s="72"/>
+      <c r="G419" s="72"/>
+      <c r="H419" s="72"/>
+      <c r="I419" s="72"/>
+      <c r="J419" s="72"/>
+      <c r="K419" s="72"/>
+      <c r="L419" s="72"/>
+      <c r="M419" s="72"/>
+      <c r="N419" s="143"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C420" s="72"/>
+      <c r="D420" s="158">
+        <v>64.0</v>
+      </c>
+      <c r="E420" s="72"/>
+      <c r="F420" s="163">
+        <v>10.0</v>
+      </c>
+      <c r="G420" s="167"/>
+      <c r="H420" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I420" s="167"/>
+      <c r="J420" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K420" s="72"/>
+      <c r="L420" s="158">
+        <v>10.0</v>
+      </c>
+      <c r="M420" s="72"/>
+      <c r="N420" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" s="118"/>
+      <c r="C421" s="72"/>
+      <c r="D421" s="72"/>
+      <c r="E421" s="72"/>
+      <c r="F421" s="72"/>
+      <c r="G421" s="72"/>
+      <c r="H421" s="72"/>
+      <c r="I421" s="72"/>
+      <c r="J421" s="72"/>
+      <c r="K421" s="72"/>
+      <c r="L421" s="72"/>
+      <c r="M421" s="72"/>
+      <c r="N421" s="143"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C422" s="168" t="s">
+        <v>168</v>
+      </c>
+      <c r="D422" s="165"/>
+      <c r="E422" s="165"/>
+      <c r="F422" s="165"/>
+      <c r="G422" s="165"/>
+      <c r="H422" s="165"/>
+      <c r="I422" s="165"/>
+      <c r="J422" s="165"/>
+      <c r="K422" s="165"/>
+      <c r="L422" s="165"/>
+      <c r="M422" s="165"/>
+      <c r="N422" s="166"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="162"/>
+      <c r="C423" s="127"/>
+      <c r="D423" s="127"/>
+      <c r="E423" s="127"/>
+      <c r="F423" s="127"/>
+      <c r="G423" s="127"/>
+      <c r="H423" s="127"/>
+      <c r="I423" s="127"/>
+      <c r="J423" s="127"/>
+      <c r="K423" s="127"/>
+      <c r="L423" s="127"/>
+      <c r="M423" s="127"/>
+      <c r="N423" s="116"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" s="153"/>
+      <c r="D424" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E424" s="153"/>
+      <c r="F424" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="G424" s="153"/>
+      <c r="H424" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I424" s="153"/>
+      <c r="J424" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="K424" s="153"/>
+      <c r="L424" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M424" s="153"/>
+      <c r="N424" s="156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" s="118"/>
+      <c r="C425" s="72"/>
+      <c r="D425" s="72"/>
+      <c r="E425" s="72"/>
+      <c r="F425" s="72"/>
+      <c r="G425" s="72"/>
+      <c r="H425" s="72"/>
+      <c r="I425" s="72"/>
+      <c r="J425" s="72"/>
+      <c r="K425" s="72"/>
+      <c r="L425" s="72"/>
+      <c r="M425" s="72"/>
+      <c r="N425" s="143"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="157">
+        <v>45670.0</v>
+      </c>
+      <c r="C426" s="72"/>
+      <c r="D426" s="158">
+        <v>65.0</v>
+      </c>
+      <c r="E426" s="72"/>
+      <c r="F426" s="163">
+        <v>60.0</v>
+      </c>
+      <c r="G426" s="167"/>
+      <c r="H426" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I426" s="167"/>
+      <c r="J426" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="K426" s="72"/>
+      <c r="L426" s="158">
+        <v>5.0</v>
+      </c>
+      <c r="M426" s="72"/>
+      <c r="N426" s="159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" s="118"/>
+      <c r="C427" s="72"/>
+      <c r="D427" s="72"/>
+      <c r="E427" s="72"/>
+      <c r="F427" s="72"/>
+      <c r="G427" s="72"/>
+      <c r="H427" s="72"/>
+      <c r="I427" s="72"/>
+      <c r="J427" s="72"/>
+      <c r="K427" s="72"/>
+      <c r="L427" s="72"/>
+      <c r="M427" s="72"/>
+      <c r="N427" s="143"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C428" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D428" s="165"/>
+      <c r="E428" s="165"/>
+      <c r="F428" s="165"/>
+      <c r="G428" s="165"/>
+      <c r="H428" s="165"/>
+      <c r="I428" s="165"/>
+      <c r="J428" s="165"/>
+      <c r="K428" s="165"/>
+      <c r="L428" s="165"/>
+      <c r="M428" s="165"/>
+      <c r="N428" s="166"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="162"/>
+      <c r="C429" s="127"/>
+      <c r="D429" s="127"/>
+      <c r="E429" s="127"/>
+      <c r="F429" s="127"/>
+      <c r="G429" s="127"/>
+      <c r="H429" s="127"/>
+      <c r="I429" s="127"/>
+      <c r="J429" s="127"/>
+      <c r="K429" s="127"/>
+      <c r="L429" s="127"/>
+      <c r="M429" s="127"/>
+      <c r="N429" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
+    <mergeCell ref="C320:N320"/>
+    <mergeCell ref="C380:N380"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="C8:F8"/>
@@ -37326,16 +44461,24 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C70:N70"/>
-    <mergeCell ref="C76:N76"/>
-    <mergeCell ref="C82:N82"/>
     <mergeCell ref="C23:N23"/>
     <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C37:N37"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="C51:N51"/>
     <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C64:N64"/>
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="C72:N72"/>
+    <mergeCell ref="C79:N79"/>
+    <mergeCell ref="C86:N86"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="C177:N177"/>
+    <mergeCell ref="C184:N184"/>
+    <mergeCell ref="C191:N191"/>
+    <mergeCell ref="C198:N198"/>
+    <mergeCell ref="C205:N205"/>
+    <mergeCell ref="C212:N212"/>
+    <mergeCell ref="C284:N284"/>
+    <mergeCell ref="C290:N290"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
